--- a/config_5.18/game_module_config_cjj.xlsx
+++ b/config_5.18/game_module_config_cjj.xlsx
@@ -3750,13 +3750,13 @@
     <t>act_053_xcns</t>
   </si>
   <si>
-    <t>消除达人</t>
+    <t>爱消福利</t>
   </si>
   <si>
     <t>Act_053_XCNSManager</t>
   </si>
   <si>
-    <t>2021年4月19日 23:59:59</t>
+    <t>2021年5月24日 23:59:59</t>
   </si>
   <si>
     <t>act_040_mslb</t>
@@ -3904,33 +3904,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -3944,8 +3917,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3968,15 +3964,22 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3992,10 +3995,26 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4007,24 +4026,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4037,16 +4045,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4121,13 +4121,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4139,19 +4175,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4163,67 +4199,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4247,25 +4235,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4277,19 +4265,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4318,15 +4318,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4338,6 +4329,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4357,17 +4359,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4396,22 +4392,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4423,10 +4423,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4435,137 +4435,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -5057,11 +5057,11 @@
   <dimension ref="A1:AJ335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C286" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C315" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C297" sqref="C297"/>
+      <selection pane="bottomRight" activeCell="E331" sqref="E331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_5.18/game_module_config_cjj.xlsx
+++ b/config_5.18/game_module_config_cjj.xlsx
@@ -3911,15 +3911,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3934,14 +3933,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4010,9 +4002,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4026,9 +4017,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4039,17 +4048,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="41">
@@ -4121,7 +4121,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4133,19 +4157,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4163,43 +4253,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4211,85 +4289,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4371,23 +4371,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4407,11 +4401,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4423,10 +4423,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4435,31 +4435,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4471,101 +4474,98 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -5061,7 +5061,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E331" sqref="E331"/>
+      <selection pane="bottomRight" activeCell="F340" sqref="F340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13648,13 +13648,13 @@
         <v>972</v>
       </c>
       <c r="E332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="s">
         <v>973</v>
@@ -13671,13 +13671,13 @@
         <v>975</v>
       </c>
       <c r="E333">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F333">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G333">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="s">
         <v>973</v>
@@ -13697,13 +13697,13 @@
         <v>978</v>
       </c>
       <c r="E334">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F334">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" ht="15.75" spans="1:9">
@@ -13720,13 +13720,13 @@
         <v>981</v>
       </c>
       <c r="E335" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F335" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G335" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" s="31" t="s">
         <v>982</v>

--- a/config_5.18/game_module_config_cjj.xlsx
+++ b/config_5.18/game_module_config_cjj.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_5.18\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
@@ -484,6 +489,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -494,6 +500,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -506,7 +513,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -515,6 +522,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>专享</t>
@@ -524,7 +532,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -533,6 +541,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>和游戏中的</t>
@@ -542,7 +551,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -551,6 +560,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>系统有牵连</t>
@@ -560,7 +570,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -619,6 +629,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -629,6 +640,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -677,6 +689,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -687,6 +700,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -771,6 +785,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>免费领红包</t>
@@ -788,6 +803,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>随机金币领取</t>
@@ -805,6 +821,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大厅推荐游戏位</t>
@@ -867,6 +884,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>实名认证</t>
@@ -884,6 +902,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抢红包</t>
@@ -1153,6 +1172,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1163,6 +1183,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1173,6 +1194,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1269,6 +1291,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>鼠年</t>
@@ -1278,7 +1301,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1287,6 +1310,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>赢金抽大奖</t>
@@ -1313,6 +1337,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>点赞有礼</t>
@@ -1330,6 +1355,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>爆竹送礼</t>
@@ -1347,6 +1373,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>红包雨</t>
@@ -1364,6 +1391,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1373,7 +1401,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1382,6 +1410,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神送礼</t>
@@ -1402,6 +1431,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1411,7 +1441,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1420,6 +1450,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1437,6 +1468,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1446,7 +1478,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1455,6 +1487,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>猜灯谜</t>
@@ -1464,7 +1497,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1481,6 +1514,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1490,7 +1524,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1499,6 +1533,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>累计赢金</t>
@@ -1516,6 +1551,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>辞旧岁</t>
@@ -1525,7 +1561,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1534,6 +1570,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>炸弹福利</t>
@@ -1551,6 +1588,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1560,7 +1598,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1569,6 +1607,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1586,6 +1625,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>浪漫情人节</t>
@@ -1603,6 +1643,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>新人七天乐</t>
@@ -1620,6 +1661,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>分享拉新</t>
@@ -1637,6 +1679,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>龙腾祈福</t>
@@ -1654,6 +1697,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1663,7 +1707,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1672,6 +1716,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1689,6 +1734,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1698,7 +1744,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1707,6 +1753,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1724,6 +1771,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1733,7 +1781,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1742,6 +1790,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼福利</t>
@@ -1759,6 +1808,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1768,7 +1818,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1777,6 +1827,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>有奖问答</t>
@@ -1794,6 +1845,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1803,7 +1855,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1812,6 +1864,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抽奖</t>
@@ -1829,6 +1882,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1838,7 +1892,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1847,6 +1901,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>礼物</t>
@@ -1864,6 +1919,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1873,7 +1929,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1882,6 +1938,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神模式</t>
@@ -1908,6 +1965,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树护苗</t>
@@ -1925,6 +1983,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树礼物</t>
@@ -1942,6 +2001,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹充值</t>
@@ -1959,6 +2019,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹收集</t>
@@ -1976,6 +2037,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹购买</t>
@@ -2002,7 +2064,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0</t>
     </r>
@@ -2011,6 +2073,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元礼包</t>
@@ -2028,7 +2091,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3D</t>
     </r>
@@ -2037,6 +2100,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼-幸运彩贝</t>
@@ -2063,6 +2127,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归惊喜</t>
@@ -2089,6 +2154,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>天女散花</t>
@@ -2106,6 +2172,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -2798,6 +2865,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2808,6 +2876,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3453,6 +3522,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3463,6 +3533,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3493,6 +3564,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3503,6 +3575,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3524,6 +3597,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3534,6 +3608,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3636,6 +3711,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3646,6 +3722,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3712,6 +3789,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3722,6 +3800,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3736,9 +3815,6 @@
   </si>
   <si>
     <t>通用礼包模板，永久</t>
-  </si>
-  <si>
-    <t>act_ty_gifts_style/act_002_ltlb</t>
   </si>
   <si>
     <t>龙腾礼包</t>
@@ -3805,18 +3881,16 @@
 GotoUI 根据参数显示活动的界面
 </t>
   </si>
+  <si>
+    <t>act_ty_gifts_style/act_002_hllb</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="34">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3827,6 +3901,7 @@
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3834,36 +3909,39 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3875,184 +3953,66 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="41">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4061,13 +4021,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399884029663991"/>
+        <fgColor theme="4" tint="0.39985351115451523"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4091,13 +4051,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799890133365886"/>
+        <fgColor theme="4" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4109,192 +4069,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399884029663991"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.39985351115451523"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4317,255 +4103,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4604,13 +4148,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4734,63 +4278,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 4" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5048,20 +4548,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C315" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F340" sqref="F340"/>
+      <selection pane="bottomRight" activeCell="C338" sqref="C338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5077,7 +4576,7 @@
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="78" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" ht="78" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5106,7 +4605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="17.1" customHeight="1" spans="1:9">
+    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -5132,7 +4631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:9">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -5158,7 +4657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:9">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -5184,7 +4683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:9">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -5210,7 +4709,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:9">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -5236,7 +4735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:9">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -5262,7 +4761,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:9">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -5288,7 +4787,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:9">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -5314,7 +4813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:9">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -5340,7 +4839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:9">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -5366,7 +4865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:9">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -5392,7 +4891,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:9">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -5418,7 +4917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:9">
+    <row r="14" spans="1:9" ht="16.5">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -5444,7 +4943,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:9">
+    <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -5470,7 +4969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:9">
+    <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -5496,7 +4995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:9">
+    <row r="17" spans="1:9" ht="16.5">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -5522,7 +5021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:9">
+    <row r="18" spans="1:9" ht="16.5">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -5548,7 +5047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:9">
+    <row r="19" spans="1:9" ht="16.5">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -5574,7 +5073,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:9">
+    <row r="20" spans="1:9" ht="16.5">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -5600,7 +5099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:9">
+    <row r="21" spans="1:9" ht="16.5">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -5626,7 +5125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:9">
+    <row r="22" spans="1:9" ht="16.5">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -5652,7 +5151,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:9">
+    <row r="23" spans="1:9" ht="16.5">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -5678,7 +5177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:9">
+    <row r="24" spans="1:9" ht="16.5">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -5704,7 +5203,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:9">
+    <row r="25" spans="1:9" ht="16.5">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -5730,7 +5229,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:9">
+    <row r="26" spans="1:9" ht="16.5">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -5756,7 +5255,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:9">
+    <row r="27" spans="1:9" ht="16.5">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -5782,7 +5281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:9">
+    <row r="28" spans="1:9" ht="16.5">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -5808,7 +5307,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:9">
+    <row r="29" spans="1:9" ht="16.5">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -5834,7 +5333,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:9">
+    <row r="30" spans="1:9" ht="16.5">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -5860,7 +5359,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:9">
+    <row r="31" spans="1:9" ht="16.5">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -5886,7 +5385,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:9">
+    <row r="32" spans="1:9" ht="16.5">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -5912,7 +5411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:9">
+    <row r="33" spans="1:9" ht="16.5">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -5938,7 +5437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:9">
+    <row r="34" spans="1:9" ht="16.5">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -5964,7 +5463,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:9">
+    <row r="35" spans="1:9" ht="16.5">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -5990,7 +5489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:9">
+    <row r="36" spans="1:9" ht="16.5">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -6016,7 +5515,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="1:9">
+    <row r="37" spans="1:9" ht="16.5">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -6042,7 +5541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:9">
+    <row r="38" spans="1:9" ht="16.5">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -6068,7 +5567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="1:9">
+    <row r="39" spans="1:9" ht="16.5">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -6094,7 +5593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="1:9">
+    <row r="40" spans="1:9" ht="16.5">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -6120,7 +5619,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:9">
+    <row r="41" spans="1:9" ht="16.5">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -6146,7 +5645,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:9">
+    <row r="42" spans="1:9" ht="16.5">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -6172,7 +5671,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="1:9">
+    <row r="43" spans="1:9" ht="16.5">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -6198,7 +5697,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="1:9">
+    <row r="44" spans="1:9" ht="16.5">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -6224,7 +5723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="1:9">
+    <row r="45" spans="1:9" ht="16.5">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -6250,7 +5749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="1:9">
+    <row r="46" spans="1:9" ht="16.5">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -6276,7 +5775,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" ht="16.5" spans="1:9">
+    <row r="47" spans="1:9" ht="16.5">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -6302,7 +5801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" ht="16.5" spans="1:9">
+    <row r="48" spans="1:9" ht="16.5">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -6328,7 +5827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="1:9">
+    <row r="49" spans="1:9" ht="16.5">
       <c r="A49" s="15">
         <v>48</v>
       </c>
@@ -6354,7 +5853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" ht="16.5" spans="1:9">
+    <row r="50" spans="1:9" ht="16.5">
       <c r="A50" s="15">
         <v>49</v>
       </c>
@@ -6380,7 +5879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" ht="16.5" spans="1:9">
+    <row r="51" spans="1:9" ht="16.5">
       <c r="A51" s="15">
         <v>50</v>
       </c>
@@ -6406,7 +5905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" ht="16.5" spans="1:9">
+    <row r="52" spans="1:9" ht="16.5">
       <c r="A52" s="15">
         <v>51</v>
       </c>
@@ -6430,7 +5929,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" ht="24.75" customHeight="1" spans="1:9">
+    <row r="53" spans="1:9" ht="24.75" customHeight="1">
       <c r="A53" s="15">
         <v>52</v>
       </c>
@@ -6456,7 +5955,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" ht="16.5" spans="1:9">
+    <row r="54" spans="1:9" ht="16.5">
       <c r="A54" s="15">
         <v>53</v>
       </c>
@@ -6482,7 +5981,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" ht="16.5" spans="1:9">
+    <row r="55" spans="1:9" ht="16.5">
       <c r="A55" s="15">
         <v>54</v>
       </c>
@@ -6508,7 +6007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" ht="16.5" spans="1:9">
+    <row r="56" spans="1:9" ht="16.5">
       <c r="A56" s="15">
         <v>55</v>
       </c>
@@ -6534,7 +6033,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" ht="16.5" spans="1:9">
+    <row r="57" spans="1:9" ht="16.5">
       <c r="A57" s="15">
         <v>56</v>
       </c>
@@ -6560,7 +6059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" ht="16.5" spans="1:9">
+    <row r="58" spans="1:9" ht="16.5">
       <c r="A58" s="15">
         <v>57</v>
       </c>
@@ -6586,7 +6085,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" ht="16.5" spans="1:9">
+    <row r="59" spans="1:9" ht="16.5">
       <c r="A59" s="15">
         <v>58</v>
       </c>
@@ -6612,7 +6111,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" ht="16.5" spans="1:9">
+    <row r="60" spans="1:9" ht="16.5">
       <c r="A60" s="15">
         <v>59</v>
       </c>
@@ -6638,7 +6137,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" ht="16.5" spans="1:9">
+    <row r="61" spans="1:9" ht="16.5">
       <c r="A61" s="15">
         <v>60</v>
       </c>
@@ -6664,7 +6163,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" ht="16.5" spans="1:9">
+    <row r="62" spans="1:9" ht="16.5">
       <c r="A62" s="15">
         <v>61</v>
       </c>
@@ -6690,7 +6189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" ht="16.5" spans="1:9">
+    <row r="63" spans="1:9" ht="16.5">
       <c r="A63" s="15">
         <v>62</v>
       </c>
@@ -6716,7 +6215,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="64" ht="16.5" spans="1:9">
+    <row r="64" spans="1:9" ht="16.5">
       <c r="A64" s="15">
         <v>63</v>
       </c>
@@ -6742,7 +6241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" ht="16.5" spans="1:9">
+    <row r="65" spans="1:9" ht="16.5">
       <c r="A65" s="15">
         <v>64</v>
       </c>
@@ -6768,7 +6267,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" ht="16.5" spans="1:9">
+    <row r="66" spans="1:9" ht="16.5">
       <c r="A66" s="15">
         <v>65</v>
       </c>
@@ -6794,7 +6293,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" ht="16.5" spans="1:9">
+    <row r="67" spans="1:9" ht="16.5">
       <c r="A67" s="15">
         <v>66</v>
       </c>
@@ -6820,7 +6319,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" ht="16.5" spans="1:9">
+    <row r="68" spans="1:9" ht="16.5">
       <c r="A68" s="15">
         <v>67</v>
       </c>
@@ -6846,7 +6345,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" ht="16.5" spans="1:9">
+    <row r="69" spans="1:9" ht="16.5">
       <c r="A69" s="15">
         <v>68</v>
       </c>
@@ -6872,7 +6371,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" ht="16.5" spans="1:9">
+    <row r="70" spans="1:9" ht="16.5">
       <c r="A70" s="15">
         <v>69</v>
       </c>
@@ -6898,7 +6397,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" ht="16.5" spans="1:9">
+    <row r="71" spans="1:9" ht="16.5">
       <c r="A71" s="15">
         <v>70</v>
       </c>
@@ -6924,7 +6423,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" ht="16.5" spans="1:9">
+    <row r="72" spans="1:9" ht="16.5">
       <c r="A72" s="15">
         <v>71</v>
       </c>
@@ -6950,7 +6449,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" ht="16.5" spans="1:9">
+    <row r="73" spans="1:9" ht="16.5">
       <c r="A73" s="15">
         <v>72</v>
       </c>
@@ -6976,7 +6475,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" s="2" customFormat="1" ht="16.5" spans="1:9">
+    <row r="74" spans="1:9" s="2" customFormat="1" ht="16.5">
       <c r="A74" s="15">
         <v>73</v>
       </c>
@@ -7002,7 +6501,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" ht="16.5" spans="1:9">
+    <row r="75" spans="1:9" ht="16.5">
       <c r="A75" s="15">
         <v>74</v>
       </c>
@@ -7028,7 +6527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" s="3" customFormat="1" ht="16.5" spans="1:9">
+    <row r="76" spans="1:9" s="3" customFormat="1" ht="16.5">
       <c r="A76" s="15">
         <v>75</v>
       </c>
@@ -7054,7 +6553,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="77" ht="16.5" spans="1:9">
+    <row r="77" spans="1:9" ht="16.5">
       <c r="A77" s="15">
         <v>76</v>
       </c>
@@ -7080,7 +6579,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" ht="16.5" spans="1:9">
+    <row r="78" spans="1:9" ht="16.5">
       <c r="A78" s="15">
         <v>77</v>
       </c>
@@ -7106,7 +6605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" ht="16.5" spans="1:9">
+    <row r="79" spans="1:9" ht="16.5">
       <c r="A79" s="15">
         <v>78</v>
       </c>
@@ -7132,7 +6631,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="80" ht="16.5" spans="1:9">
+    <row r="80" spans="1:9" ht="16.5">
       <c r="A80" s="15">
         <v>79</v>
       </c>
@@ -7158,7 +6657,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="81" ht="16.5" spans="1:9">
+    <row r="81" spans="1:9" ht="16.5">
       <c r="A81" s="15">
         <v>80</v>
       </c>
@@ -7184,7 +6683,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="82" ht="16.5" spans="1:9">
+    <row r="82" spans="1:9" ht="16.5">
       <c r="A82" s="15">
         <v>81</v>
       </c>
@@ -7210,7 +6709,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="83" ht="16.5" spans="1:9">
+    <row r="83" spans="1:9" ht="16.5">
       <c r="A83" s="15">
         <v>82</v>
       </c>
@@ -7236,7 +6735,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" ht="16.5" spans="1:9">
+    <row r="84" spans="1:9" ht="16.5">
       <c r="A84" s="15">
         <v>83</v>
       </c>
@@ -7262,7 +6761,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="85" ht="16.5" spans="1:9">
+    <row r="85" spans="1:9" ht="16.5">
       <c r="A85" s="15">
         <v>84</v>
       </c>
@@ -7288,7 +6787,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" ht="16.5" spans="1:9">
+    <row r="86" spans="1:9" ht="16.5">
       <c r="A86" s="15">
         <v>85</v>
       </c>
@@ -7314,7 +6813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" ht="16.5" spans="1:9">
+    <row r="87" spans="1:9" ht="16.5">
       <c r="A87" s="15">
         <v>86</v>
       </c>
@@ -7340,7 +6839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" ht="16.5" spans="1:9">
+    <row r="88" spans="1:9" ht="16.5">
       <c r="A88" s="15">
         <v>87</v>
       </c>
@@ -7366,7 +6865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" ht="16.5" spans="1:9">
+    <row r="89" spans="1:9" ht="16.5">
       <c r="A89" s="15">
         <v>88</v>
       </c>
@@ -7392,7 +6891,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" ht="16.5" spans="1:9">
+    <row r="90" spans="1:9" ht="16.5">
       <c r="A90" s="15">
         <v>89</v>
       </c>
@@ -7418,7 +6917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" ht="16.5" spans="1:9">
+    <row r="91" spans="1:9" ht="16.5">
       <c r="A91" s="15">
         <v>90</v>
       </c>
@@ -7444,7 +6943,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" ht="16.5" spans="1:9">
+    <row r="92" spans="1:9" ht="16.5">
       <c r="A92" s="15">
         <v>91</v>
       </c>
@@ -7470,7 +6969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" ht="16.5" spans="1:9">
+    <row r="93" spans="1:9" ht="16.5">
       <c r="A93" s="15">
         <v>92</v>
       </c>
@@ -7496,7 +6995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" ht="16.5" spans="1:9">
+    <row r="94" spans="1:9" ht="16.5">
       <c r="A94" s="15">
         <v>93</v>
       </c>
@@ -7522,7 +7021,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" ht="16.5" spans="1:9">
+    <row r="95" spans="1:9" ht="16.5">
       <c r="A95" s="15">
         <v>94</v>
       </c>
@@ -7548,7 +7047,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" ht="16.5" spans="1:9">
+    <row r="96" spans="1:9" ht="16.5">
       <c r="A96" s="15">
         <v>95</v>
       </c>
@@ -7574,7 +7073,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" ht="16.5" spans="1:9">
+    <row r="97" spans="1:9" ht="16.5">
       <c r="A97" s="15">
         <v>96</v>
       </c>
@@ -7600,7 +7099,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="98" ht="16.5" spans="1:9">
+    <row r="98" spans="1:9" ht="16.5">
       <c r="A98" s="15">
         <v>97</v>
       </c>
@@ -7626,7 +7125,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" ht="16.5" spans="1:9">
+    <row r="99" spans="1:9" ht="16.5">
       <c r="A99" s="15">
         <v>98</v>
       </c>
@@ -7652,7 +7151,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" ht="16.5" spans="1:9">
+    <row r="100" spans="1:9" ht="16.5">
       <c r="A100" s="15">
         <v>99</v>
       </c>
@@ -7678,7 +7177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" ht="16.5" spans="1:9">
+    <row r="101" spans="1:9" ht="16.5">
       <c r="A101" s="15">
         <v>100</v>
       </c>
@@ -7704,7 +7203,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="102" ht="16.5" spans="1:9">
+    <row r="102" spans="1:9" ht="16.5">
       <c r="A102" s="15">
         <v>101</v>
       </c>
@@ -7730,7 +7229,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" ht="16.5" spans="1:9">
+    <row r="103" spans="1:9" ht="16.5">
       <c r="A103" s="15">
         <v>102</v>
       </c>
@@ -7756,7 +7255,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" ht="16.5" spans="1:9">
+    <row r="104" spans="1:9" ht="16.5">
       <c r="A104" s="15">
         <v>103</v>
       </c>
@@ -7782,7 +7281,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="105" ht="16.5" spans="1:9">
+    <row r="105" spans="1:9" ht="16.5">
       <c r="A105" s="15">
         <v>104</v>
       </c>
@@ -7808,7 +7307,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" ht="16.5" spans="1:9">
+    <row r="106" spans="1:9" ht="16.5">
       <c r="A106" s="15">
         <v>105</v>
       </c>
@@ -7834,7 +7333,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="107" ht="16.5" spans="1:9">
+    <row r="107" spans="1:9" ht="16.5">
       <c r="A107" s="15">
         <v>106</v>
       </c>
@@ -7860,7 +7359,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="108" ht="16.5" spans="1:9">
+    <row r="108" spans="1:9" ht="16.5">
       <c r="A108" s="15">
         <v>107</v>
       </c>
@@ -7886,7 +7385,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="109" ht="16.5" spans="1:9">
+    <row r="109" spans="1:9" ht="16.5">
       <c r="A109" s="15">
         <v>108</v>
       </c>
@@ -7912,7 +7411,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="110" ht="16.5" spans="1:9">
+    <row r="110" spans="1:9" ht="16.5">
       <c r="A110" s="15">
         <v>109</v>
       </c>
@@ -7938,7 +7437,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="111" ht="16.5" spans="1:9">
+    <row r="111" spans="1:9" ht="16.5">
       <c r="A111" s="15">
         <v>110</v>
       </c>
@@ -7964,7 +7463,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="112" ht="16.5" spans="1:9">
+    <row r="112" spans="1:9" ht="16.5">
       <c r="A112" s="15">
         <v>111</v>
       </c>
@@ -7990,7 +7489,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="113" ht="16.5" spans="1:9">
+    <row r="113" spans="1:9" ht="16.5">
       <c r="A113" s="15">
         <v>112</v>
       </c>
@@ -8016,7 +7515,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" ht="16.5" spans="1:9">
+    <row r="114" spans="1:9" ht="16.5">
       <c r="A114" s="15">
         <v>113</v>
       </c>
@@ -8042,7 +7541,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="115" ht="16.5" spans="1:9">
+    <row r="115" spans="1:9" ht="16.5">
       <c r="A115" s="15">
         <v>114</v>
       </c>
@@ -8068,7 +7567,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="116" ht="16.5" spans="1:9">
+    <row r="116" spans="1:9" ht="16.5">
       <c r="A116" s="15">
         <v>115</v>
       </c>
@@ -8094,7 +7593,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="117" ht="16.5" spans="1:9">
+    <row r="117" spans="1:9" ht="16.5">
       <c r="A117" s="15">
         <v>116</v>
       </c>
@@ -8120,7 +7619,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="118" ht="16.5" spans="1:9">
+    <row r="118" spans="1:9" ht="16.5">
       <c r="A118" s="15">
         <v>117</v>
       </c>
@@ -8146,7 +7645,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="119" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A119" s="24">
         <v>118</v>
       </c>
@@ -8172,7 +7671,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="120" ht="16.5" spans="1:9">
+    <row r="120" spans="1:9" ht="16.5">
       <c r="A120" s="15">
         <v>119</v>
       </c>
@@ -8198,7 +7697,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="121" ht="16.5" spans="1:9">
+    <row r="121" spans="1:9" ht="16.5">
       <c r="A121" s="15">
         <v>120</v>
       </c>
@@ -8224,7 +7723,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="122" ht="16.5" spans="1:9">
+    <row r="122" spans="1:9" ht="16.5">
       <c r="A122" s="15">
         <v>121</v>
       </c>
@@ -8250,7 +7749,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="123" ht="16.5" spans="1:9">
+    <row r="123" spans="1:9" ht="16.5">
       <c r="A123" s="15">
         <v>122</v>
       </c>
@@ -8276,7 +7775,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="124" ht="16.5" spans="1:9">
+    <row r="124" spans="1:9" ht="16.5">
       <c r="A124" s="15">
         <v>123</v>
       </c>
@@ -8302,7 +7801,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="125" ht="16.5" spans="1:9">
+    <row r="125" spans="1:9" ht="16.5">
       <c r="A125" s="15">
         <v>124</v>
       </c>
@@ -8328,7 +7827,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="126" ht="16.5" spans="1:9">
+    <row r="126" spans="1:9" ht="16.5">
       <c r="A126" s="15">
         <v>125</v>
       </c>
@@ -8354,7 +7853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" ht="16.5" spans="1:9">
+    <row r="127" spans="1:9" ht="16.5">
       <c r="A127" s="15">
         <v>126</v>
       </c>
@@ -8380,7 +7879,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="128" ht="16.5" spans="1:9">
+    <row r="128" spans="1:9" ht="16.5">
       <c r="A128" s="15">
         <v>127</v>
       </c>
@@ -8406,7 +7905,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="129" ht="16.5" spans="1:9">
+    <row r="129" spans="1:9" ht="16.5">
       <c r="A129" s="15">
         <v>128</v>
       </c>
@@ -8432,7 +7931,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="130" ht="16.5" spans="1:9">
+    <row r="130" spans="1:9" ht="16.5">
       <c r="A130" s="15">
         <v>129</v>
       </c>
@@ -8458,7 +7957,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="131" ht="16.5" spans="1:9">
+    <row r="131" spans="1:9" ht="16.5">
       <c r="A131" s="15">
         <v>130</v>
       </c>
@@ -8484,7 +7983,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="132" ht="16.5" spans="1:9">
+    <row r="132" spans="1:9" ht="16.5">
       <c r="A132" s="15">
         <v>131</v>
       </c>
@@ -8510,7 +8009,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="133" ht="16.5" spans="1:9">
+    <row r="133" spans="1:9" ht="16.5">
       <c r="A133" s="15">
         <v>132</v>
       </c>
@@ -8536,7 +8035,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="134" ht="16.5" spans="1:9">
+    <row r="134" spans="1:9" ht="16.5">
       <c r="A134" s="15">
         <v>133</v>
       </c>
@@ -8562,7 +8061,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="135" ht="16.5" spans="1:9">
+    <row r="135" spans="1:9" ht="16.5">
       <c r="A135" s="15">
         <v>134</v>
       </c>
@@ -8588,7 +8087,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="136" ht="16.5" spans="1:9">
+    <row r="136" spans="1:9" ht="16.5">
       <c r="A136" s="15">
         <v>135</v>
       </c>
@@ -8614,7 +8113,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="137" ht="16.5" spans="1:9">
+    <row r="137" spans="1:9" ht="16.5">
       <c r="A137" s="15">
         <v>136</v>
       </c>
@@ -8640,7 +8139,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="138" ht="16.5" spans="1:9">
+    <row r="138" spans="1:9" ht="16.5">
       <c r="A138" s="15">
         <v>137</v>
       </c>
@@ -8666,7 +8165,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="139" ht="16.5" spans="1:9">
+    <row r="139" spans="1:9" ht="16.5">
       <c r="A139" s="15">
         <v>138</v>
       </c>
@@ -8692,7 +8191,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="140" ht="16.5" spans="1:9">
+    <row r="140" spans="1:9" ht="16.5">
       <c r="A140" s="15">
         <v>139</v>
       </c>
@@ -8718,7 +8217,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="141" ht="16.5" spans="1:9">
+    <row r="141" spans="1:9" ht="16.5">
       <c r="A141" s="15">
         <v>140</v>
       </c>
@@ -8744,7 +8243,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="142" ht="16.5" spans="1:9">
+    <row r="142" spans="1:9" ht="16.5">
       <c r="A142" s="15">
         <v>141</v>
       </c>
@@ -8770,7 +8269,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" ht="16.5" spans="1:9">
+    <row r="143" spans="1:9" ht="16.5">
       <c r="A143" s="15">
         <v>142</v>
       </c>
@@ -8796,7 +8295,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" ht="16.5" spans="1:9">
+    <row r="144" spans="1:9" ht="16.5">
       <c r="A144" s="15">
         <v>143</v>
       </c>
@@ -8822,7 +8321,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" ht="16.5" spans="1:9">
+    <row r="145" spans="1:9" ht="16.5">
       <c r="A145" s="15">
         <v>144</v>
       </c>
@@ -8848,7 +8347,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="146" ht="16.5" spans="1:9">
+    <row r="146" spans="1:9" ht="16.5">
       <c r="A146" s="15">
         <v>145</v>
       </c>
@@ -8874,7 +8373,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="147" ht="16.5" spans="1:9">
+    <row r="147" spans="1:9" ht="16.5">
       <c r="A147" s="15">
         <v>146</v>
       </c>
@@ -8900,7 +8399,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="148" ht="16.5" spans="1:9">
+    <row r="148" spans="1:9" ht="16.5">
       <c r="A148" s="15">
         <v>147</v>
       </c>
@@ -8926,7 +8425,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="149" ht="16.5" spans="1:9">
+    <row r="149" spans="1:9" ht="16.5">
       <c r="A149" s="15">
         <v>148</v>
       </c>
@@ -8952,7 +8451,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="150" ht="16.5" spans="1:9">
+    <row r="150" spans="1:9" ht="16.5">
       <c r="A150" s="15">
         <v>149</v>
       </c>
@@ -8978,7 +8477,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="151" ht="16.5" spans="1:9">
+    <row r="151" spans="1:9" ht="16.5">
       <c r="A151" s="15">
         <v>150</v>
       </c>
@@ -9004,7 +8503,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="152" ht="16.5" spans="1:9">
+    <row r="152" spans="1:9" ht="16.5">
       <c r="A152" s="15">
         <v>151</v>
       </c>
@@ -9030,7 +8529,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="153" ht="16.5" spans="1:9">
+    <row r="153" spans="1:9" ht="16.5">
       <c r="A153" s="15">
         <v>152</v>
       </c>
@@ -9056,7 +8555,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="154" ht="16.5" spans="1:9">
+    <row r="154" spans="1:9" ht="16.5">
       <c r="A154" s="15">
         <v>153</v>
       </c>
@@ -9082,7 +8581,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="155" ht="16.5" spans="1:9">
+    <row r="155" spans="1:9" ht="16.5">
       <c r="A155" s="15">
         <v>154</v>
       </c>
@@ -9108,7 +8607,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="156" ht="16.5" spans="1:9">
+    <row r="156" spans="1:9" ht="16.5">
       <c r="A156" s="15">
         <v>155</v>
       </c>
@@ -9134,7 +8633,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="157" ht="16.5" spans="1:9">
+    <row r="157" spans="1:9" ht="16.5">
       <c r="A157" s="15">
         <v>156</v>
       </c>
@@ -9160,7 +8659,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" ht="16.5" spans="1:9">
+    <row r="158" spans="1:9" ht="16.5">
       <c r="A158" s="15">
         <v>157</v>
       </c>
@@ -9186,7 +8685,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="159" ht="16.5" spans="1:9">
+    <row r="159" spans="1:9" ht="16.5">
       <c r="A159" s="15">
         <v>158</v>
       </c>
@@ -9212,7 +8711,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="160" ht="16.5" spans="1:9">
+    <row r="160" spans="1:9" ht="16.5">
       <c r="A160" s="15">
         <v>159</v>
       </c>
@@ -9238,7 +8737,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="161" ht="16.5" spans="1:9">
+    <row r="161" spans="1:9" ht="16.5">
       <c r="A161" s="15">
         <v>160</v>
       </c>
@@ -9264,7 +8763,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="162" ht="16.5" spans="1:9">
+    <row r="162" spans="1:9" ht="16.5">
       <c r="A162" s="15">
         <v>161</v>
       </c>
@@ -9290,7 +8789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" ht="16.5" spans="1:9">
+    <row r="163" spans="1:9" ht="16.5">
       <c r="A163" s="15">
         <v>162</v>
       </c>
@@ -9316,7 +8815,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="164" ht="16.5" spans="1:9">
+    <row r="164" spans="1:9" ht="16.5">
       <c r="A164" s="15">
         <v>163</v>
       </c>
@@ -9342,7 +8841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" ht="16.5" spans="1:9">
+    <row r="165" spans="1:9" ht="16.5">
       <c r="A165" s="15">
         <v>164</v>
       </c>
@@ -9368,7 +8867,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="166" ht="16.5" spans="1:9">
+    <row r="166" spans="1:9" ht="16.5">
       <c r="A166" s="15">
         <v>165</v>
       </c>
@@ -9394,7 +8893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" ht="16.5" spans="1:9">
+    <row r="167" spans="1:9" ht="16.5">
       <c r="A167" s="15">
         <v>166</v>
       </c>
@@ -9420,7 +8919,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="168" ht="16.5" spans="1:9">
+    <row r="168" spans="1:9" ht="16.5">
       <c r="A168" s="15">
         <v>167</v>
       </c>
@@ -9446,7 +8945,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="169" ht="16.5" spans="1:9">
+    <row r="169" spans="1:9" ht="16.5">
       <c r="A169" s="15">
         <v>168</v>
       </c>
@@ -9470,7 +8969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" ht="16.5" spans="1:9">
+    <row r="170" spans="1:9" ht="16.5">
       <c r="A170" s="15">
         <v>169</v>
       </c>
@@ -9494,7 +8993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" ht="16.5" spans="1:9">
+    <row r="171" spans="1:9" ht="16.5">
       <c r="A171" s="15">
         <v>170</v>
       </c>
@@ -9518,7 +9017,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="172" ht="16.5" spans="1:9">
+    <row r="172" spans="1:9" ht="16.5">
       <c r="A172" s="15">
         <v>171</v>
       </c>
@@ -9542,7 +9041,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" ht="16.5" spans="1:9">
+    <row r="173" spans="1:9" ht="16.5">
       <c r="A173" s="15">
         <v>172</v>
       </c>
@@ -9568,7 +9067,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="174" ht="16.5" spans="1:9">
+    <row r="174" spans="1:9" ht="16.5">
       <c r="A174" s="15">
         <v>173</v>
       </c>
@@ -9592,7 +9091,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="175" ht="16.5" spans="1:9">
+    <row r="175" spans="1:9" ht="16.5">
       <c r="A175" s="15">
         <v>174</v>
       </c>
@@ -9616,7 +9115,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" ht="16.5" spans="1:9">
+    <row r="176" spans="1:9" ht="16.5">
       <c r="A176" s="15">
         <v>175</v>
       </c>
@@ -9640,7 +9139,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="177" ht="16.5" spans="1:9">
+    <row r="177" spans="1:9" ht="16.5">
       <c r="A177" s="15">
         <v>176</v>
       </c>
@@ -9666,7 +9165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" ht="16.5" spans="1:9">
+    <row r="178" spans="1:9" ht="16.5">
       <c r="A178" s="15">
         <v>177</v>
       </c>
@@ -9692,7 +9191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" ht="16.5" spans="1:9">
+    <row r="179" spans="1:9" ht="16.5">
       <c r="A179" s="15">
         <v>178</v>
       </c>
@@ -9716,7 +9215,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="180" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A180" s="15">
         <v>179</v>
       </c>
@@ -9740,7 +9239,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="181" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A181" s="15">
         <v>180</v>
       </c>
@@ -9764,7 +9263,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="182" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A182" s="15">
         <v>181</v>
       </c>
@@ -9788,7 +9287,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="183" ht="16.5" spans="1:9">
+    <row r="183" spans="1:9" ht="16.5">
       <c r="A183" s="15">
         <v>182</v>
       </c>
@@ -9811,7 +9310,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="184" ht="16.5" spans="1:9">
+    <row r="184" spans="1:9" ht="16.5">
       <c r="A184" s="15">
         <v>183</v>
       </c>
@@ -9834,7 +9333,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="185" ht="16.5" spans="1:9">
+    <row r="185" spans="1:9" ht="16.5">
       <c r="A185" s="15">
         <v>184</v>
       </c>
@@ -9857,7 +9356,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="186" ht="16.5" spans="1:9">
+    <row r="186" spans="1:9" ht="16.5">
       <c r="A186" s="15">
         <v>185</v>
       </c>
@@ -9880,7 +9379,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="187" ht="16.5" spans="1:9">
+    <row r="187" spans="1:9" ht="16.5">
       <c r="A187" s="15">
         <v>186</v>
       </c>
@@ -9903,7 +9402,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="188" ht="16.5" spans="1:9">
+    <row r="188" spans="1:9" ht="16.5">
       <c r="A188" s="15">
         <v>187</v>
       </c>
@@ -9926,7 +9425,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="189" ht="16.5" spans="1:9">
+    <row r="189" spans="1:9" ht="16.5">
       <c r="A189" s="15">
         <v>188</v>
       </c>
@@ -9949,7 +9448,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="190" ht="16.5" spans="1:9">
+    <row r="190" spans="1:9" ht="16.5">
       <c r="A190" s="15">
         <v>189</v>
       </c>
@@ -9972,7 +9471,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="191" ht="16.5" spans="1:9">
+    <row r="191" spans="1:9" ht="16.5">
       <c r="A191" s="15">
         <v>190</v>
       </c>
@@ -9995,7 +9494,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="192" ht="16.5" spans="1:9">
+    <row r="192" spans="1:9" ht="16.5">
       <c r="A192" s="15">
         <v>191</v>
       </c>
@@ -10018,7 +9517,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="193" ht="16.5" spans="1:9">
+    <row r="193" spans="1:9" ht="16.5">
       <c r="A193" s="15">
         <v>192</v>
       </c>
@@ -10041,7 +9540,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="194" ht="16.5" spans="1:9">
+    <row r="194" spans="1:9" ht="16.5">
       <c r="A194" s="15">
         <v>193</v>
       </c>
@@ -10064,7 +9563,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="195" ht="16.5" spans="1:9">
+    <row r="195" spans="1:9" ht="16.5">
       <c r="A195" s="15">
         <v>194</v>
       </c>
@@ -10087,7 +9586,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="196" ht="16.5" spans="1:9">
+    <row r="196" spans="1:9" ht="16.5">
       <c r="A196" s="15">
         <v>195</v>
       </c>
@@ -10110,7 +9609,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="197" ht="16.5" spans="1:9">
+    <row r="197" spans="1:9" ht="16.5">
       <c r="A197" s="15">
         <v>196</v>
       </c>
@@ -10133,7 +9632,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="198" ht="16.5" spans="1:9">
+    <row r="198" spans="1:9" ht="16.5">
       <c r="A198" s="15">
         <v>197</v>
       </c>
@@ -10156,7 +9655,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="199" ht="16.5" spans="1:9">
+    <row r="199" spans="1:9" ht="16.5">
       <c r="A199" s="15">
         <v>198</v>
       </c>
@@ -10179,7 +9678,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="200" ht="16.5" spans="1:9">
+    <row r="200" spans="1:9" ht="16.5">
       <c r="A200" s="15">
         <v>199</v>
       </c>
@@ -10202,7 +9701,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="201" ht="16.5" spans="1:9">
+    <row r="201" spans="1:9" ht="16.5">
       <c r="A201" s="15">
         <v>200</v>
       </c>
@@ -10225,7 +9724,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="202" ht="16.5" spans="1:9">
+    <row r="202" spans="1:9" ht="16.5">
       <c r="A202" s="15">
         <v>201</v>
       </c>
@@ -10248,7 +9747,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="203" ht="16.5" spans="1:9">
+    <row r="203" spans="1:9" ht="16.5">
       <c r="A203" s="15">
         <v>202</v>
       </c>
@@ -10271,7 +9770,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="204" ht="16.5" spans="1:9">
+    <row r="204" spans="1:9" ht="16.5">
       <c r="A204" s="15">
         <v>203</v>
       </c>
@@ -10297,7 +9796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" ht="16.5" spans="1:9">
+    <row r="205" spans="1:9" ht="16.5">
       <c r="A205" s="15">
         <v>204</v>
       </c>
@@ -10323,7 +9822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" ht="16.5" spans="1:9">
+    <row r="206" spans="1:9" ht="16.5">
       <c r="A206" s="15">
         <v>205</v>
       </c>
@@ -10349,7 +9848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" ht="16.5" spans="1:9">
+    <row r="207" spans="1:9" ht="16.5">
       <c r="A207" s="15">
         <v>206</v>
       </c>
@@ -10372,7 +9871,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="208" ht="16.5" spans="1:9">
+    <row r="208" spans="1:9" ht="16.5">
       <c r="A208" s="15">
         <v>207</v>
       </c>
@@ -10395,7 +9894,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="209" ht="16.5" spans="1:9">
+    <row r="209" spans="1:9" ht="16.5">
       <c r="A209" s="15">
         <v>208</v>
       </c>
@@ -10418,7 +9917,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="210" ht="16.5" spans="1:9">
+    <row r="210" spans="1:9" ht="16.5">
       <c r="A210" s="15">
         <v>209</v>
       </c>
@@ -10441,7 +9940,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="211" ht="16.5" spans="1:9">
+    <row r="211" spans="1:9" ht="16.5">
       <c r="A211" s="15">
         <v>210</v>
       </c>
@@ -10464,7 +9963,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" ht="16.5" spans="1:9">
+    <row r="212" spans="1:9" ht="16.5">
       <c r="A212" s="15">
         <v>211</v>
       </c>
@@ -10487,7 +9986,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="213" ht="16.5" spans="1:9">
+    <row r="213" spans="1:9" ht="16.5">
       <c r="A213" s="15">
         <v>212</v>
       </c>
@@ -10510,7 +10009,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="214" ht="16.5" spans="1:9">
+    <row r="214" spans="1:9" ht="16.5">
       <c r="A214" s="15">
         <v>213</v>
       </c>
@@ -10533,7 +10032,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="215" ht="16.5" spans="1:9">
+    <row r="215" spans="1:9" ht="16.5">
       <c r="A215" s="15">
         <v>214</v>
       </c>
@@ -10556,7 +10055,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="216" ht="16.5" spans="1:9">
+    <row r="216" spans="1:9" ht="16.5">
       <c r="A216" s="15">
         <v>215</v>
       </c>
@@ -10579,7 +10078,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="217" ht="16.5" spans="1:9">
+    <row r="217" spans="1:9" ht="16.5">
       <c r="A217" s="15">
         <v>216</v>
       </c>
@@ -10602,7 +10101,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="218" ht="16.5" spans="1:9">
+    <row r="218" spans="1:9" ht="16.5">
       <c r="A218" s="15">
         <v>217</v>
       </c>
@@ -10625,7 +10124,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="219" ht="16.5" spans="1:9">
+    <row r="219" spans="1:9" ht="16.5">
       <c r="A219" s="15">
         <v>218</v>
       </c>
@@ -10648,7 +10147,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="220" ht="16.5" spans="1:9">
+    <row r="220" spans="1:9" ht="16.5">
       <c r="A220" s="15">
         <v>219</v>
       </c>
@@ -10671,7 +10170,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="221" ht="16.5" spans="1:9">
+    <row r="221" spans="1:9" ht="16.5">
       <c r="A221" s="15">
         <v>220</v>
       </c>
@@ -10694,7 +10193,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="222" ht="16.5" spans="1:9">
+    <row r="222" spans="1:9" ht="16.5">
       <c r="A222" s="15">
         <v>221</v>
       </c>
@@ -10717,7 +10216,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="223" ht="16.5" spans="1:9">
+    <row r="223" spans="1:9" ht="16.5">
       <c r="A223" s="15">
         <v>222</v>
       </c>
@@ -10740,7 +10239,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="224" ht="16.5" spans="1:9">
+    <row r="224" spans="1:9" ht="16.5">
       <c r="A224" s="15">
         <v>223</v>
       </c>
@@ -10763,7 +10262,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="225" ht="16.5" spans="1:9">
+    <row r="225" spans="1:9" ht="16.5">
       <c r="A225" s="15">
         <v>224</v>
       </c>
@@ -10786,7 +10285,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="226" ht="16.5" spans="1:7">
+    <row r="226" spans="1:9" ht="16.5">
       <c r="A226" s="15">
         <v>225</v>
       </c>
@@ -10809,7 +10308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" ht="16.5" spans="1:7">
+    <row r="227" spans="1:9" ht="16.5">
       <c r="A227" s="15">
         <v>226</v>
       </c>
@@ -10832,7 +10331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" ht="16.5" spans="1:7">
+    <row r="228" spans="1:9" ht="16.5">
       <c r="A228" s="15">
         <v>227</v>
       </c>
@@ -10855,7 +10354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" ht="16.5" spans="1:7">
+    <row r="229" spans="1:9" ht="16.5">
       <c r="A229" s="15">
         <v>228</v>
       </c>
@@ -10878,7 +10377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" ht="16.5" spans="1:7">
+    <row r="230" spans="1:9" ht="16.5">
       <c r="A230" s="15">
         <v>229</v>
       </c>
@@ -10901,7 +10400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" ht="16.5" spans="1:7">
+    <row r="231" spans="1:9" ht="16.5">
       <c r="A231" s="15">
         <v>230</v>
       </c>
@@ -10924,7 +10423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" ht="16.5" spans="1:7">
+    <row r="232" spans="1:9" ht="16.5">
       <c r="A232" s="15">
         <v>231</v>
       </c>
@@ -10947,7 +10446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" ht="16.5" spans="1:7">
+    <row r="233" spans="1:9" ht="16.5">
       <c r="A233" s="15">
         <v>232</v>
       </c>
@@ -10970,7 +10469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" ht="16.5" spans="1:7">
+    <row r="234" spans="1:9" ht="16.5">
       <c r="A234" s="15">
         <v>233</v>
       </c>
@@ -10993,7 +10492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" ht="16.5" spans="1:9">
+    <row r="235" spans="1:9" ht="16.5">
       <c r="A235" s="15">
         <v>234</v>
       </c>
@@ -11019,7 +10518,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="236" ht="16.5" spans="1:9">
+    <row r="236" spans="1:9" ht="16.5">
       <c r="A236" s="15">
         <v>235</v>
       </c>
@@ -11045,7 +10544,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="237" ht="16.5" spans="1:9">
+    <row r="237" spans="1:9" ht="16.5">
       <c r="A237" s="15">
         <v>236</v>
       </c>
@@ -11071,7 +10570,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="238" ht="16.5" spans="1:9">
+    <row r="238" spans="1:9" ht="16.5">
       <c r="A238" s="15">
         <v>237</v>
       </c>
@@ -11097,7 +10596,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="239" ht="16.5" spans="1:9">
+    <row r="239" spans="1:9" ht="16.5">
       <c r="A239" s="15">
         <v>238</v>
       </c>
@@ -11123,7 +10622,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="240" ht="16.5" spans="1:9">
+    <row r="240" spans="1:9" ht="16.5">
       <c r="A240" s="15">
         <v>239</v>
       </c>
@@ -11149,7 +10648,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="241" ht="16.5" spans="1:9">
+    <row r="241" spans="1:9" ht="16.5">
       <c r="A241" s="15">
         <v>240</v>
       </c>
@@ -11175,7 +10674,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="242" ht="16.5" spans="1:9">
+    <row r="242" spans="1:9" ht="16.5">
       <c r="A242" s="15">
         <v>241</v>
       </c>
@@ -11201,7 +10700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="243" ht="16.5" spans="1:9">
+    <row r="243" spans="1:9" ht="16.5">
       <c r="A243" s="15">
         <v>242</v>
       </c>
@@ -11227,7 +10726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="244" ht="16.5" spans="1:9">
+    <row r="244" spans="1:9" ht="16.5">
       <c r="A244" s="15">
         <v>243</v>
       </c>
@@ -11253,7 +10752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="245" ht="16.5" spans="1:9">
+    <row r="245" spans="1:9" ht="16.5">
       <c r="A245" s="15">
         <v>244</v>
       </c>
@@ -11279,7 +10778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="246" ht="16.5" spans="1:9">
+    <row r="246" spans="1:9" ht="16.5">
       <c r="A246" s="15">
         <v>245</v>
       </c>
@@ -11305,7 +10804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="247" ht="16.5" spans="1:9">
+    <row r="247" spans="1:9" ht="16.5">
       <c r="A247" s="15">
         <v>246</v>
       </c>
@@ -11331,7 +10830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="248" ht="16.5" spans="1:9">
+    <row r="248" spans="1:9" ht="16.5">
       <c r="A248" s="15">
         <v>247</v>
       </c>
@@ -11357,7 +10856,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="249" ht="16.5" spans="1:9">
+    <row r="249" spans="1:9" ht="16.5">
       <c r="A249" s="15">
         <v>248</v>
       </c>
@@ -11383,7 +10882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="250" ht="16.5" spans="1:9">
+    <row r="250" spans="1:9" ht="16.5">
       <c r="A250" s="15">
         <v>249</v>
       </c>
@@ -11409,7 +10908,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="251" ht="16.5" spans="1:9">
+    <row r="251" spans="1:9" ht="16.5">
       <c r="A251" s="15">
         <v>250</v>
       </c>
@@ -11435,7 +10934,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="252" ht="16.5" spans="1:9">
+    <row r="252" spans="1:9" ht="16.5">
       <c r="A252" s="15">
         <v>251</v>
       </c>
@@ -11461,7 +10960,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="253" ht="16.5" spans="1:9">
+    <row r="253" spans="1:9" ht="16.5">
       <c r="A253" s="15">
         <v>252</v>
       </c>
@@ -11488,7 +10987,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" ht="16.5" spans="1:9">
+    <row r="254" spans="1:9" ht="16.5">
       <c r="A254" s="15">
         <v>253</v>
       </c>
@@ -11514,7 +11013,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="255" ht="16.5" spans="1:9">
+    <row r="255" spans="1:9" ht="16.5">
       <c r="A255" s="15">
         <v>254</v>
       </c>
@@ -11540,7 +11039,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" s="3" customFormat="1" ht="16.5" spans="1:9">
+    <row r="256" spans="1:9" s="3" customFormat="1" ht="16.5">
       <c r="A256" s="15">
         <v>255</v>
       </c>
@@ -11567,7 +11066,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="257" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="257" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A257" s="15">
         <v>256</v>
       </c>
@@ -11593,7 +11092,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="258" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="258" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A258" s="15">
         <v>257</v>
       </c>
@@ -11619,7 +11118,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="259" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="259" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A259" s="15">
         <v>258</v>
       </c>
@@ -11645,7 +11144,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="260" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A260" s="15">
         <v>259</v>
       </c>
@@ -11671,7 +11170,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="261" ht="16.5" spans="1:9">
+    <row r="261" spans="1:9" ht="16.5">
       <c r="A261" s="15">
         <v>260</v>
       </c>
@@ -11697,7 +11196,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="262" ht="16.5" spans="1:9">
+    <row r="262" spans="1:9" ht="16.5">
       <c r="A262" s="15">
         <v>261</v>
       </c>
@@ -11723,7 +11222,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="263" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A263" s="15">
         <v>262</v>
       </c>
@@ -11749,7 +11248,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="264" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="264" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A264" s="15">
         <v>263</v>
       </c>
@@ -11775,7 +11274,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="265" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A265" s="15">
         <v>264</v>
       </c>
@@ -11801,7 +11300,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="266" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="266" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A266" s="15">
         <v>265</v>
       </c>
@@ -11827,7 +11326,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="267" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="267" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A267" s="15">
         <v>266</v>
       </c>
@@ -11853,7 +11352,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="268" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="268" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A268" s="24">
         <v>267</v>
       </c>
@@ -11879,7 +11378,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="269" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="269" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A269" s="15">
         <v>268</v>
       </c>
@@ -11905,7 +11404,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="270" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="270" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A270" s="15">
         <v>269</v>
       </c>
@@ -11931,7 +11430,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="271" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="271" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A271" s="15">
         <v>270</v>
       </c>
@@ -11957,7 +11456,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="272" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="272" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A272" s="15">
         <v>271</v>
       </c>
@@ -11983,7 +11482,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="273" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="273" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A273" s="15">
         <v>272</v>
       </c>
@@ -12009,7 +11508,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="274" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="274" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A274" s="15">
         <v>273</v>
       </c>
@@ -12035,7 +11534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="275" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A275" s="15">
         <v>274</v>
       </c>
@@ -12061,7 +11560,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="276" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="276" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A276" s="35">
         <v>275</v>
       </c>
@@ -12084,7 +11583,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="277" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="277" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A277" s="15">
         <v>276</v>
       </c>
@@ -12110,7 +11609,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="278" ht="16.5" spans="1:9">
+    <row r="278" spans="1:9" ht="16.5">
       <c r="A278" s="15">
         <v>277</v>
       </c>
@@ -12136,7 +11635,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="279" ht="16.5" spans="1:9">
+    <row r="279" spans="1:9" ht="16.5">
       <c r="A279" s="15">
         <v>278</v>
       </c>
@@ -12159,7 +11658,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="280" ht="16.5" spans="1:9">
+    <row r="280" spans="1:9" ht="16.5">
       <c r="A280" s="15">
         <v>279</v>
       </c>
@@ -12185,7 +11684,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="281" ht="16.5" spans="1:9">
+    <row r="281" spans="1:9" ht="16.5">
       <c r="A281" s="15">
         <v>280</v>
       </c>
@@ -12211,7 +11710,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="282" ht="16.5" spans="1:9">
+    <row r="282" spans="1:9" ht="16.5">
       <c r="A282" s="15">
         <v>281</v>
       </c>
@@ -12237,7 +11736,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="283" ht="16.5" spans="1:9">
+    <row r="283" spans="1:9" ht="16.5">
       <c r="A283" s="15">
         <v>282</v>
       </c>
@@ -12263,7 +11762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" s="7" customFormat="1" ht="16.5" spans="1:9">
+    <row r="284" spans="1:9" s="7" customFormat="1" ht="16.5">
       <c r="A284" s="15">
         <v>283</v>
       </c>
@@ -12289,7 +11788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="285" s="7" customFormat="1" ht="16.5" spans="1:9">
+    <row r="285" spans="1:9" s="7" customFormat="1" ht="16.5">
       <c r="A285" s="15">
         <v>284</v>
       </c>
@@ -12315,7 +11814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" s="7" customFormat="1" ht="16.5" spans="1:9">
+    <row r="286" spans="1:9" s="7" customFormat="1" ht="16.5">
       <c r="A286" s="15">
         <v>285</v>
       </c>
@@ -12341,7 +11840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" s="8" customFormat="1" ht="16.5" spans="1:9">
+    <row r="287" spans="1:9" s="8" customFormat="1" ht="16.5">
       <c r="A287" s="15">
         <v>286</v>
       </c>
@@ -12367,7 +11866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="288" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A288" s="35">
         <v>287</v>
       </c>
@@ -12393,7 +11892,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="289" ht="16.5" spans="1:9">
+    <row r="289" spans="1:36" ht="16.5">
       <c r="A289" s="15">
         <v>288</v>
       </c>
@@ -12419,7 +11918,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" s="9" customFormat="1" ht="16.5" spans="1:9">
+    <row r="290" spans="1:36" s="9" customFormat="1" ht="16.5">
       <c r="A290" s="15">
         <v>289</v>
       </c>
@@ -12445,7 +11944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" s="9" customFormat="1" ht="16.5" spans="1:9">
+    <row r="291" spans="1:36" s="9" customFormat="1" ht="16.5">
       <c r="A291" s="15">
         <v>290</v>
       </c>
@@ -12471,7 +11970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" ht="16.5" spans="1:9">
+    <row r="292" spans="1:36" ht="16.5">
       <c r="A292" s="15">
         <v>291</v>
       </c>
@@ -12497,7 +11996,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="293" ht="16.5" spans="1:9">
+    <row r="293" spans="1:36" ht="16.5">
       <c r="A293" s="15">
         <v>292</v>
       </c>
@@ -12523,7 +12022,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="294" ht="16.5" spans="1:9">
+    <row r="294" spans="1:36" ht="16.5">
       <c r="A294" s="15">
         <v>293</v>
       </c>
@@ -12550,7 +12049,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="295" s="10" customFormat="1" ht="16.5" spans="1:36">
+    <row r="295" spans="1:36" s="10" customFormat="1" ht="16.5">
       <c r="A295" s="15">
         <v>294</v>
       </c>
@@ -12604,7 +12103,7 @@
       <c r="AI295" s="5"/>
       <c r="AJ295" s="5"/>
     </row>
-    <row r="296" s="10" customFormat="1" ht="16.5" spans="1:36">
+    <row r="296" spans="1:36" s="10" customFormat="1" ht="16.5">
       <c r="A296" s="15">
         <v>295</v>
       </c>
@@ -12658,7 +12157,7 @@
       <c r="AI296" s="5"/>
       <c r="AJ296" s="5"/>
     </row>
-    <row r="297" s="10" customFormat="1" ht="16.5" spans="1:36">
+    <row r="297" spans="1:36" s="10" customFormat="1" ht="16.5">
       <c r="A297" s="15">
         <v>296</v>
       </c>
@@ -12712,7 +12211,7 @@
       <c r="AI297" s="5"/>
       <c r="AJ297" s="5"/>
     </row>
-    <row r="298" ht="16.5" spans="1:36">
+    <row r="298" spans="1:36" ht="16.5">
       <c r="A298" s="15">
         <v>297</v>
       </c>
@@ -12766,7 +12265,7 @@
       <c r="AI298" s="5"/>
       <c r="AJ298" s="5"/>
     </row>
-    <row r="299" s="11" customFormat="1" ht="16.5" spans="1:36">
+    <row r="299" spans="1:36" s="11" customFormat="1" ht="16.5">
       <c r="A299" s="15">
         <v>298</v>
       </c>
@@ -12820,7 +12319,7 @@
       <c r="AI299" s="5"/>
       <c r="AJ299" s="5"/>
     </row>
-    <row r="300" ht="16.5" spans="1:9">
+    <row r="300" spans="1:36" ht="16.5">
       <c r="A300" s="15">
         <v>299</v>
       </c>
@@ -12847,7 +12346,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="301" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="301" spans="1:36" s="5" customFormat="1" ht="16.5">
       <c r="A301" s="15">
         <v>300</v>
       </c>
@@ -12874,7 +12373,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="302" ht="16.5" spans="1:9">
+    <row r="302" spans="1:36" ht="16.5">
       <c r="A302" s="15">
         <v>301</v>
       </c>
@@ -12901,7 +12400,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" ht="16.5" spans="1:9">
+    <row r="303" spans="1:36" ht="16.5">
       <c r="A303" s="15">
         <v>302</v>
       </c>
@@ -12928,7 +12427,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="304" ht="16.5" spans="1:9">
+    <row r="304" spans="1:36" ht="16.5">
       <c r="A304" s="15">
         <v>303</v>
       </c>
@@ -12955,7 +12454,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="305" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="305" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A305" s="15">
         <v>304</v>
       </c>
@@ -12981,7 +12480,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="306" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="306" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A306" s="15">
         <v>305</v>
       </c>
@@ -13007,7 +12506,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="307" ht="16.5" spans="1:7">
+    <row r="307" spans="1:9" ht="16.5">
       <c r="A307" s="15">
         <v>306</v>
       </c>
@@ -13030,7 +12529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="308" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A308" s="15">
         <v>307</v>
       </c>
@@ -13056,7 +12555,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="309" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="309" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A309" s="15">
         <v>308</v>
       </c>
@@ -13082,7 +12581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="310" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A310" s="15">
         <v>309</v>
       </c>
@@ -13108,7 +12607,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="311" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="311" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A311" s="15">
         <v>310</v>
       </c>
@@ -13134,7 +12633,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="312" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="312" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A312" s="15">
         <v>311</v>
       </c>
@@ -13157,7 +12656,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="313" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="313" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A313" s="15">
         <v>312</v>
       </c>
@@ -13180,7 +12679,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="314" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="314" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A314" s="15">
         <v>313</v>
       </c>
@@ -13203,7 +12702,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="315" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="315" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A315" s="15">
         <v>314</v>
       </c>
@@ -13226,7 +12725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="316" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="316" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A316" s="15">
         <v>315</v>
       </c>
@@ -13249,7 +12748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="317" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A317" s="15">
         <v>316</v>
       </c>
@@ -13275,7 +12774,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="318" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="318" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A318" s="15">
         <v>317</v>
       </c>
@@ -13299,7 +12798,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="319" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="319" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A319" s="15">
         <v>318</v>
       </c>
@@ -13325,7 +12824,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="320" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="320" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A320" s="15">
         <v>319</v>
       </c>
@@ -13348,7 +12847,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="321" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="321" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A321" s="15">
         <v>320</v>
       </c>
@@ -13377,7 +12876,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="322" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="322" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A322" s="15">
         <v>321</v>
       </c>
@@ -13403,7 +12902,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="323" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="323" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A323" s="15">
         <v>322</v>
       </c>
@@ -13429,7 +12928,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="324" ht="16.5" spans="1:9">
+    <row r="324" spans="1:9" ht="16.5">
       <c r="A324" s="15">
         <v>323</v>
       </c>
@@ -13455,7 +12954,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="325" ht="16.5" spans="1:9">
+    <row r="325" spans="1:9" ht="16.5">
       <c r="A325" s="15">
         <v>324</v>
       </c>
@@ -13481,7 +12980,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="326" ht="16.5" spans="1:9">
+    <row r="326" spans="1:9" ht="16.5">
       <c r="A326" s="15">
         <v>325</v>
       </c>
@@ -13507,7 +13006,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="327" s="9" customFormat="1" ht="16.5" spans="1:9">
+    <row r="327" spans="1:9" s="9" customFormat="1" ht="16.5">
       <c r="A327" s="15">
         <v>326</v>
       </c>
@@ -13533,7 +13032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="328" ht="16.5" spans="1:9">
+    <row r="328" spans="1:9" ht="16.5">
       <c r="A328" s="15">
         <v>327</v>
       </c>
@@ -13559,7 +13058,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="329" ht="16.5" spans="1:9">
+    <row r="329" spans="1:9" ht="16.5">
       <c r="A329" s="15">
         <v>328</v>
       </c>
@@ -13585,91 +13084,91 @@
         <v>962</v>
       </c>
     </row>
-    <row r="330" ht="16.5" spans="1:9">
+    <row r="330" spans="1:9" ht="16.5">
       <c r="A330" s="15">
         <v>329</v>
       </c>
       <c r="B330" s="51" t="s">
+        <v>983</v>
+      </c>
+      <c r="C330" s="31" t="s">
         <v>963</v>
       </c>
-      <c r="C330" s="31" t="s">
+      <c r="E330" s="5">
+        <v>1</v>
+      </c>
+      <c r="F330" s="5">
+        <v>1</v>
+      </c>
+      <c r="G330" s="5">
+        <v>1</v>
+      </c>
+      <c r="I330" s="31" t="s">
         <v>964</v>
       </c>
-      <c r="E330" s="5">
-        <v>1</v>
-      </c>
-      <c r="F330" s="5">
-        <v>1</v>
-      </c>
-      <c r="G330" s="5">
-        <v>1</v>
-      </c>
-      <c r="I330" s="31" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="331" ht="16.5" spans="1:9">
+    </row>
+    <row r="331" spans="1:9" ht="16.5">
       <c r="A331" s="15">
         <v>330</v>
       </c>
       <c r="B331" s="51" t="s">
+        <v>965</v>
+      </c>
+      <c r="C331" s="31" t="s">
         <v>966</v>
       </c>
-      <c r="C331" s="31" t="s">
+      <c r="D331" s="18" t="s">
         <v>967</v>
       </c>
-      <c r="D331" s="18" t="s">
+      <c r="E331" s="5">
+        <v>1</v>
+      </c>
+      <c r="F331" s="5">
+        <v>1</v>
+      </c>
+      <c r="G331" s="5">
+        <v>1</v>
+      </c>
+      <c r="I331" s="31" t="s">
         <v>968</v>
       </c>
-      <c r="E331" s="5">
-        <v>1</v>
-      </c>
-      <c r="F331" s="5">
-        <v>1</v>
-      </c>
-      <c r="G331" s="5">
-        <v>1</v>
-      </c>
-      <c r="I331" s="31" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="332" ht="16.5" spans="1:9">
+    </row>
+    <row r="332" spans="1:9" ht="16.5">
       <c r="A332" s="15">
         <v>331</v>
       </c>
       <c r="B332" s="52" t="s">
+        <v>969</v>
+      </c>
+      <c r="C332" t="s">
         <v>970</v>
       </c>
-      <c r="C332" t="s">
+      <c r="D332" s="53" t="s">
         <v>971</v>
       </c>
-      <c r="D332" s="53" t="s">
+      <c r="E332">
+        <v>0</v>
+      </c>
+      <c r="F332">
+        <v>0</v>
+      </c>
+      <c r="G332">
+        <v>0</v>
+      </c>
+      <c r="I332" t="s">
         <v>972</v>
       </c>
-      <c r="E332">
-        <v>0</v>
-      </c>
-      <c r="F332">
-        <v>0</v>
-      </c>
-      <c r="G332">
-        <v>0</v>
-      </c>
-      <c r="I332" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="333" ht="16.5" spans="1:9">
+    </row>
+    <row r="333" spans="1:9" ht="16.5">
       <c r="A333" s="15">
         <v>332</v>
       </c>
       <c r="B333" s="51" t="s">
+        <v>973</v>
+      </c>
+      <c r="C333" t="s">
         <v>974</v>
       </c>
-      <c r="C333" t="s">
-        <v>975</v>
-      </c>
       <c r="E333">
         <v>0</v>
       </c>
@@ -13680,22 +13179,22 @@
         <v>0</v>
       </c>
       <c r="I333" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="334" ht="16.5" spans="1:7">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" ht="16.5">
       <c r="A334" s="15">
         <v>333</v>
       </c>
       <c r="B334" s="51" t="s">
+        <v>975</v>
+      </c>
+      <c r="C334" s="54" t="s">
         <v>976</v>
       </c>
-      <c r="C334" s="54" t="s">
+      <c r="D334" s="18" t="s">
         <v>977</v>
       </c>
-      <c r="D334" s="18" t="s">
-        <v>978</v>
-      </c>
       <c r="E334">
         <v>0</v>
       </c>
@@ -13706,66 +13205,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" ht="15.75" spans="1:9">
+    <row r="335" spans="1:9" ht="15.75">
       <c r="A335" s="5">
         <v>334</v>
       </c>
       <c r="B335" s="52" t="s">
+        <v>978</v>
+      </c>
+      <c r="C335" t="s">
         <v>979</v>
       </c>
-      <c r="C335" t="s">
+      <c r="D335" s="52" t="s">
         <v>980</v>
       </c>
-      <c r="D335" s="52" t="s">
+      <c r="E335" s="5">
+        <v>0</v>
+      </c>
+      <c r="F335" s="5">
+        <v>0</v>
+      </c>
+      <c r="G335" s="5">
+        <v>0</v>
+      </c>
+      <c r="I335" s="31" t="s">
         <v>981</v>
       </c>
-      <c r="E335" s="5">
-        <v>0</v>
-      </c>
-      <c r="F335" s="5">
-        <v>0</v>
-      </c>
-      <c r="G335" s="5">
-        <v>0</v>
-      </c>
-      <c r="I335" s="31" t="s">
-        <v>982</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H335">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:H335"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="97.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="153" customHeight="1" spans="1:1">
+    <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="2" ht="51.75" customHeight="1"/>
-    <row r="3" ht="52.5" customHeight="1"/>
+        <v>982</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
+    <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
   </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_5.18/game_module_config_cjj.xlsx
+++ b/config_5.18/game_module_config_cjj.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="984">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3746,13 +3746,16 @@
     <t>Act_040_MSLBManager</t>
   </si>
   <si>
+    <t>（180天领取）5月10日23:59:59</t>
+  </si>
+  <si>
+    <t>act_ty_zp1_style/act_ty_zp1_002</t>
+  </si>
+  <si>
+    <t>通用转盘皮肤</t>
+  </si>
+  <si>
     <t>5月10日23:59:59</t>
-  </si>
-  <si>
-    <t>act_ty_zp1_style/act_ty_zp1_002</t>
-  </si>
-  <si>
-    <t>通用转盘皮肤</t>
   </si>
   <si>
     <t>act_cjj_by_byam_guide</t>
@@ -3789,10 +3792,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -3882,118 +3885,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4015,6 +3907,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -4023,11 +3967,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="41">
@@ -4099,7 +4102,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4111,7 +4162,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4123,19 +4174,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4147,19 +4246,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4171,97 +4264,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4305,6 +4308,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4322,9 +4334,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4359,17 +4382,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4384,15 +4396,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4401,10 +4404,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4413,137 +4416,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -5039,7 +5042,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C335" sqref="C335"/>
+      <selection pane="bottomRight" activeCell="C332" sqref="C332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13626,13 +13629,13 @@
         <v>971</v>
       </c>
       <c r="E332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I332" t="s">
         <v>972</v>
@@ -13658,7 +13661,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
     </row>
     <row r="334" ht="16.5" spans="1:7">
@@ -13666,13 +13669,13 @@
         <v>333</v>
       </c>
       <c r="B334" s="51" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C334" s="54" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D334" s="18" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E334">
         <v>0</v>
@@ -13689,13 +13692,13 @@
         <v>334</v>
       </c>
       <c r="B335" s="52" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C335" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="D335" s="52" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E335" s="5">
         <v>0</v>
@@ -13707,7 +13710,7 @@
         <v>0</v>
       </c>
       <c r="I335" s="31" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
   </sheetData>
@@ -13737,7 +13740,7 @@
   <sheetData>
     <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="2" ht="51.75" customHeight="1"/>

--- a/config_5.18/game_module_config_cjj.xlsx
+++ b/config_5.18/game_module_config_cjj.xlsx
@@ -3571,7 +3571,7 @@
     <t>周常活动皮肤</t>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_014</t>
+    <t>sys_act_base_style/sys_act_base_weekly_016</t>
   </si>
   <si>
     <t>扩展活动皮肤</t>
@@ -3812,11 +3812,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3910,8 +3910,115 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3925,62 +4032,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -3991,75 +4045,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="43">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4128,7 +4121,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4140,7 +4211,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4152,73 +4277,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4230,85 +4289,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4337,15 +4318,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4357,6 +4329,54 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4387,50 +4407,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4442,10 +4423,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4454,137 +4435,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -5076,11 +5057,11 @@
   <dimension ref="A1:AJ335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C238" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C288" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E241" sqref="E241"/>
+      <selection pane="bottomRight" activeCell="B305" sqref="B305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_5.18/game_module_config_cjj.xlsx
+++ b/config_5.18/game_module_config_cjj.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="983">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3541,28 +3541,28 @@
     </r>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_013_dlphb</t>
+    <t>act_ty_sjb_style/act_015_dlphb</t>
   </si>
   <si>
     <t>掉落排行榜皮肤（铁锤）</t>
   </si>
   <si>
+    <t>5月24日23:59:59</t>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_011_boss</t>
+  </si>
+  <si>
+    <t>五星掉落</t>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_010_hhl</t>
+  </si>
+  <si>
+    <t>换好礼皮肤</t>
+  </si>
+  <si>
     <t>3月29日23:59:59</t>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_011_boss</t>
-  </si>
-  <si>
-    <t>五星掉落</t>
-  </si>
-  <si>
-    <t>5月24日23:59:59</t>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_010_hhl</t>
-  </si>
-  <si>
-    <t>换好礼皮肤</t>
   </si>
   <si>
     <t>sys_act_base_style/sys_act_base_normal_001</t>
@@ -3701,32 +3701,10 @@
     <t>act_052_qfhl</t>
   </si>
   <si>
-    <t>龙腾祈福</t>
+    <t>祈福好礼</t>
   </si>
   <si>
     <t>Act_052_QFHLManager</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>021年4月12日 23:59:59</t>
-    </r>
   </si>
   <si>
     <t>act_ty_gifts</t>
@@ -3811,8 +3789,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -3904,7 +3882,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3912,9 +3897,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3933,6 +3945,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -3940,38 +3976,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3986,17 +3993,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4009,44 +4008,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4121,7 +4099,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4133,31 +4129,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4175,19 +4159,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4199,97 +4267,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4318,6 +4296,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4337,7 +4324,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4353,30 +4340,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4407,11 +4370,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4423,10 +4401,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4435,137 +4413,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -5057,11 +5035,11 @@
   <dimension ref="A1:AJ335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C288" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C310" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B305" sqref="B305"/>
+      <selection pane="bottomRight" activeCell="C335" sqref="C335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13177,7 +13155,7 @@
         <v>1</v>
       </c>
       <c r="I313" s="36" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="314" s="6" customFormat="1" ht="16.5" spans="1:9">
@@ -13185,22 +13163,22 @@
         <v>313</v>
       </c>
       <c r="B314" s="46" t="s">
+        <v>915</v>
+      </c>
+      <c r="C314" s="36" t="s">
         <v>916</v>
       </c>
-      <c r="C314" s="36" t="s">
+      <c r="E314" s="6">
+        <v>0</v>
+      </c>
+      <c r="F314" s="6">
+        <v>0</v>
+      </c>
+      <c r="G314" s="6">
+        <v>0</v>
+      </c>
+      <c r="I314" s="36" t="s">
         <v>917</v>
-      </c>
-      <c r="E314" s="6">
-        <v>1</v>
-      </c>
-      <c r="F314" s="6">
-        <v>1</v>
-      </c>
-      <c r="G314" s="6">
-        <v>1</v>
-      </c>
-      <c r="I314" s="36" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="315" s="6" customFormat="1" ht="16.5" spans="1:9">
@@ -13555,8 +13533,8 @@
       <c r="G328">
         <v>1</v>
       </c>
-      <c r="I328" s="18" t="s">
-        <v>959</v>
+      <c r="I328" s="36" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="329" ht="16.5" spans="1:9">
@@ -13564,25 +13542,25 @@
         <v>328</v>
       </c>
       <c r="B329" s="51" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C329" s="31" t="s">
         <v>166</v>
       </c>
       <c r="D329" t="s">
+        <v>960</v>
+      </c>
+      <c r="E329" s="5">
+        <v>1</v>
+      </c>
+      <c r="F329" s="5">
+        <v>1</v>
+      </c>
+      <c r="G329" s="5">
+        <v>1</v>
+      </c>
+      <c r="I329" s="31" t="s">
         <v>961</v>
-      </c>
-      <c r="E329" s="5">
-        <v>1</v>
-      </c>
-      <c r="F329" s="5">
-        <v>1</v>
-      </c>
-      <c r="G329" s="5">
-        <v>1</v>
-      </c>
-      <c r="I329" s="31" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="330" ht="16.5" spans="1:9">
@@ -13590,22 +13568,22 @@
         <v>329</v>
       </c>
       <c r="B330" s="51" t="s">
+        <v>962</v>
+      </c>
+      <c r="C330" s="31" t="s">
         <v>963</v>
       </c>
-      <c r="C330" s="31" t="s">
+      <c r="E330" s="5">
+        <v>1</v>
+      </c>
+      <c r="F330" s="5">
+        <v>1</v>
+      </c>
+      <c r="G330" s="5">
+        <v>1</v>
+      </c>
+      <c r="I330" s="31" t="s">
         <v>964</v>
-      </c>
-      <c r="E330" s="5">
-        <v>1</v>
-      </c>
-      <c r="F330" s="5">
-        <v>1</v>
-      </c>
-      <c r="G330" s="5">
-        <v>1</v>
-      </c>
-      <c r="I330" s="31" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="331" ht="16.5" spans="1:9">
@@ -13613,25 +13591,25 @@
         <v>330</v>
       </c>
       <c r="B331" s="51" t="s">
+        <v>965</v>
+      </c>
+      <c r="C331" s="31" t="s">
         <v>966</v>
       </c>
-      <c r="C331" s="31" t="s">
+      <c r="D331" s="18" t="s">
         <v>967</v>
       </c>
-      <c r="D331" s="18" t="s">
+      <c r="E331" s="5">
+        <v>1</v>
+      </c>
+      <c r="F331" s="5">
+        <v>1</v>
+      </c>
+      <c r="G331" s="5">
+        <v>1</v>
+      </c>
+      <c r="I331" s="31" t="s">
         <v>968</v>
-      </c>
-      <c r="E331" s="5">
-        <v>1</v>
-      </c>
-      <c r="F331" s="5">
-        <v>1</v>
-      </c>
-      <c r="G331" s="5">
-        <v>1</v>
-      </c>
-      <c r="I331" s="31" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="332" ht="16.5" spans="1:9">
@@ -13639,25 +13617,25 @@
         <v>331</v>
       </c>
       <c r="B332" s="52" t="s">
+        <v>969</v>
+      </c>
+      <c r="C332" t="s">
         <v>970</v>
       </c>
-      <c r="C332" t="s">
+      <c r="D332" s="53" t="s">
         <v>971</v>
       </c>
-      <c r="D332" s="53" t="s">
+      <c r="E332">
+        <v>0</v>
+      </c>
+      <c r="F332">
+        <v>0</v>
+      </c>
+      <c r="G332">
+        <v>0</v>
+      </c>
+      <c r="I332" t="s">
         <v>972</v>
-      </c>
-      <c r="E332">
-        <v>0</v>
-      </c>
-      <c r="F332">
-        <v>0</v>
-      </c>
-      <c r="G332">
-        <v>0</v>
-      </c>
-      <c r="I332" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="333" ht="16.5" spans="1:9">
@@ -13665,11 +13643,11 @@
         <v>332</v>
       </c>
       <c r="B333" s="51" t="s">
+        <v>973</v>
+      </c>
+      <c r="C333" t="s">
         <v>974</v>
       </c>
-      <c r="C333" t="s">
-        <v>975</v>
-      </c>
       <c r="E333">
         <v>0</v>
       </c>
@@ -13680,7 +13658,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="334" ht="16.5" spans="1:7">
@@ -13688,13 +13666,13 @@
         <v>333</v>
       </c>
       <c r="B334" s="51" t="s">
+        <v>975</v>
+      </c>
+      <c r="C334" s="54" t="s">
         <v>976</v>
       </c>
-      <c r="C334" s="54" t="s">
+      <c r="D334" s="18" t="s">
         <v>977</v>
-      </c>
-      <c r="D334" s="18" t="s">
-        <v>978</v>
       </c>
       <c r="E334">
         <v>0</v>
@@ -13711,25 +13689,25 @@
         <v>334</v>
       </c>
       <c r="B335" s="52" t="s">
+        <v>978</v>
+      </c>
+      <c r="C335" t="s">
         <v>979</v>
       </c>
-      <c r="C335" t="s">
+      <c r="D335" s="52" t="s">
         <v>980</v>
       </c>
-      <c r="D335" s="52" t="s">
+      <c r="E335" s="5">
+        <v>0</v>
+      </c>
+      <c r="F335" s="5">
+        <v>0</v>
+      </c>
+      <c r="G335" s="5">
+        <v>0</v>
+      </c>
+      <c r="I335" s="31" t="s">
         <v>981</v>
-      </c>
-      <c r="E335" s="5">
-        <v>0</v>
-      </c>
-      <c r="F335" s="5">
-        <v>0</v>
-      </c>
-      <c r="G335" s="5">
-        <v>0</v>
-      </c>
-      <c r="I335" s="31" t="s">
-        <v>982</v>
       </c>
     </row>
   </sheetData>
@@ -13759,7 +13737,7 @@
   <sheetData>
     <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="2" ht="51.75" customHeight="1"/>

--- a/config_5.18/game_module_config_cjj.xlsx
+++ b/config_5.18/game_module_config_cjj.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="984">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3550,10 +3550,13 @@
     <t>3月29日23:59:59</t>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_015_gongju</t>
-  </si>
-  <si>
-    <t>活动boss皮肤（铁锤）</t>
+    <t>act_ty_by_drop_style/act_011_boss</t>
+  </si>
+  <si>
+    <t>五星掉落</t>
+  </si>
+  <si>
+    <t>5月24日23:59:59</t>
   </si>
   <si>
     <t>act_ty_by_hhl_style/act_010_hhl</t>
@@ -3900,32 +3903,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3954,7 +3938,100 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3969,83 +4046,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4118,7 +4121,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4130,37 +4187,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4172,79 +4205,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4262,13 +4229,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4280,13 +4247,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4315,51 +4318,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -4384,13 +4342,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4404,11 +4381,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4420,10 +4423,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4432,137 +4435,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -5054,11 +5057,11 @@
   <dimension ref="A1:AJ335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C281" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C286" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C288" sqref="C288"/>
+      <selection pane="bottomRight" activeCell="C297" sqref="C297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13174,7 +13177,7 @@
         <v>1</v>
       </c>
       <c r="I313" s="36" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
     </row>
     <row r="314" s="6" customFormat="1" ht="16.5" spans="1:9">
@@ -13182,10 +13185,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="46" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C314" s="36" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="E314" s="6">
         <v>1</v>
@@ -13205,10 +13208,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="47" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C315" s="36" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="E315" s="6">
         <v>1</v>
@@ -13228,10 +13231,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="48" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C316" s="36" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E316" s="6">
         <v>1</v>
@@ -13251,13 +13254,13 @@
         <v>316</v>
       </c>
       <c r="B317" s="46" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C317" s="36" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D317" s="46" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="E317" s="6">
         <v>1</v>
@@ -13269,7 +13272,7 @@
         <v>1</v>
       </c>
       <c r="I317" s="36" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="318" s="5" customFormat="1" ht="16.5" spans="1:9">
@@ -13277,10 +13280,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="49" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C318" s="31" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D318" s="32"/>
       <c r="E318" s="5">
@@ -13293,7 +13296,7 @@
         <v>0</v>
       </c>
       <c r="I318" s="31" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="319" s="5" customFormat="1" ht="16.5" spans="1:9">
@@ -13301,13 +13304,13 @@
         <v>318</v>
       </c>
       <c r="B319" s="32" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C319" s="31" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="D319" s="32" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E319" s="5">
         <v>0</v>
@@ -13319,7 +13322,7 @@
         <v>0</v>
       </c>
       <c r="I319" s="31" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="320" s="5" customFormat="1" ht="16.5" spans="1:9">
@@ -13327,22 +13330,22 @@
         <v>319</v>
       </c>
       <c r="B320" s="32" t="s">
+        <v>932</v>
+      </c>
+      <c r="C320" s="31" t="s">
+        <v>933</v>
+      </c>
+      <c r="E320" s="5">
+        <v>0</v>
+      </c>
+      <c r="F320" s="5">
+        <v>0</v>
+      </c>
+      <c r="G320" s="5">
+        <v>0</v>
+      </c>
+      <c r="I320" s="31" t="s">
         <v>931</v>
-      </c>
-      <c r="C320" s="31" t="s">
-        <v>932</v>
-      </c>
-      <c r="E320" s="5">
-        <v>0</v>
-      </c>
-      <c r="F320" s="5">
-        <v>0</v>
-      </c>
-      <c r="G320" s="5">
-        <v>0</v>
-      </c>
-      <c r="I320" s="31" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="321" s="5" customFormat="1" ht="16.5" spans="1:9">
@@ -13350,13 +13353,13 @@
         <v>320</v>
       </c>
       <c r="B321" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C321" s="50" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="D321" s="32" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E321" s="5">
         <v>0</v>
@@ -13368,10 +13371,10 @@
         <v>0</v>
       </c>
       <c r="H321" s="5" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="I321" s="31" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="322" s="5" customFormat="1" ht="16.5" spans="1:9">
@@ -13379,13 +13382,13 @@
         <v>321</v>
       </c>
       <c r="B322" s="32" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C322" s="31" t="s">
         <v>476</v>
       </c>
       <c r="D322" s="32" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E322" s="5">
         <v>0</v>
@@ -13397,7 +13400,7 @@
         <v>0</v>
       </c>
       <c r="I322" s="31" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="323" s="5" customFormat="1" ht="16.5" spans="1:9">
@@ -13405,13 +13408,13 @@
         <v>322</v>
       </c>
       <c r="B323" s="32" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C323" s="31" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="D323" s="32" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E323" s="5">
         <v>0</v>
@@ -13431,13 +13434,13 @@
         <v>323</v>
       </c>
       <c r="B324" s="51" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C324" s="31" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D324" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E324" s="5">
         <v>1</v>
@@ -13457,13 +13460,13 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C325" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D325" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="E325">
         <v>1</v>
@@ -13483,13 +13486,13 @@
         <v>325</v>
       </c>
       <c r="B326" s="32" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C326" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="D326" s="32" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="E326">
         <v>1</v>
@@ -13509,13 +13512,13 @@
         <v>326</v>
       </c>
       <c r="B327" s="40" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C327" s="41" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D327" s="40" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="E327" s="9">
         <v>1</v>
@@ -13535,13 +13538,13 @@
         <v>327</v>
       </c>
       <c r="B328" s="18" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C328" s="18" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="D328" s="18" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E328">
         <v>1</v>
@@ -13553,7 +13556,7 @@
         <v>1</v>
       </c>
       <c r="I328" s="18" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="329" ht="16.5" spans="1:9">
@@ -13561,13 +13564,13 @@
         <v>328</v>
       </c>
       <c r="B329" s="51" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C329" s="31" t="s">
         <v>166</v>
       </c>
       <c r="D329" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E329" s="5">
         <v>1</v>
@@ -13579,7 +13582,7 @@
         <v>1</v>
       </c>
       <c r="I329" s="31" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="330" ht="16.5" spans="1:9">
@@ -13587,10 +13590,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="51" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C330" s="31" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E330" s="5">
         <v>1</v>
@@ -13602,7 +13605,7 @@
         <v>1</v>
       </c>
       <c r="I330" s="31" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="331" ht="16.5" spans="1:9">
@@ -13610,13 +13613,13 @@
         <v>330</v>
       </c>
       <c r="B331" s="51" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C331" s="31" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D331" s="18" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="E331" s="5">
         <v>1</v>
@@ -13628,7 +13631,7 @@
         <v>1</v>
       </c>
       <c r="I331" s="31" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="332" ht="16.5" spans="1:9">
@@ -13636,13 +13639,13 @@
         <v>331</v>
       </c>
       <c r="B332" s="52" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C332" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="D332" s="53" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="E332">
         <v>1</v>
@@ -13654,7 +13657,7 @@
         <v>1</v>
       </c>
       <c r="I332" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="333" ht="16.5" spans="1:9">
@@ -13662,22 +13665,22 @@
         <v>332</v>
       </c>
       <c r="B333" s="51" t="s">
+        <v>974</v>
+      </c>
+      <c r="C333" t="s">
+        <v>975</v>
+      </c>
+      <c r="E333">
+        <v>1</v>
+      </c>
+      <c r="F333">
+        <v>1</v>
+      </c>
+      <c r="G333">
+        <v>1</v>
+      </c>
+      <c r="I333" t="s">
         <v>973</v>
-      </c>
-      <c r="C333" t="s">
-        <v>974</v>
-      </c>
-      <c r="E333">
-        <v>1</v>
-      </c>
-      <c r="F333">
-        <v>1</v>
-      </c>
-      <c r="G333">
-        <v>1</v>
-      </c>
-      <c r="I333" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="334" ht="16.5" spans="1:7">
@@ -13685,13 +13688,13 @@
         <v>333</v>
       </c>
       <c r="B334" s="51" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C334" s="54" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D334" s="18" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E334">
         <v>1</v>
@@ -13708,13 +13711,13 @@
         <v>334</v>
       </c>
       <c r="B335" s="52" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C335" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="D335" s="52" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E335" s="5">
         <v>1</v>
@@ -13726,7 +13729,7 @@
         <v>1</v>
       </c>
       <c r="I335" s="31" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
   </sheetData>
@@ -13756,7 +13759,7 @@
   <sheetData>
     <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="2" ht="51.75" customHeight="1"/>

--- a/config_5.18/game_module_config_cjj.xlsx
+++ b/config_5.18/game_module_config_cjj.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_5.18\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
@@ -489,7 +484,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -500,7 +494,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -513,7 +506,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -522,7 +515,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>专享</t>
@@ -532,7 +524,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -541,7 +533,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>和游戏中的</t>
@@ -551,7 +542,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -560,7 +551,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>系统有牵连</t>
@@ -570,7 +560,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -629,7 +619,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -640,7 +629,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -689,7 +677,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -700,7 +687,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -785,7 +771,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>免费领红包</t>
@@ -803,7 +788,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>随机金币领取</t>
@@ -821,7 +805,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大厅推荐游戏位</t>
@@ -884,7 +867,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>实名认证</t>
@@ -902,7 +884,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抢红包</t>
@@ -1172,7 +1153,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1183,7 +1163,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1194,7 +1173,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1291,7 +1269,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>鼠年</t>
@@ -1301,7 +1278,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1310,7 +1287,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>赢金抽大奖</t>
@@ -1337,7 +1313,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>点赞有礼</t>
@@ -1355,7 +1330,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>爆竹送礼</t>
@@ -1373,7 +1347,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>红包雨</t>
@@ -1391,7 +1364,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1401,7 +1373,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1410,7 +1382,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神送礼</t>
@@ -1431,7 +1402,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1441,7 +1411,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1450,7 +1420,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1468,7 +1437,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1478,7 +1446,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1487,7 +1455,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>猜灯谜</t>
@@ -1497,7 +1464,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1514,7 +1481,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1524,7 +1490,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1533,7 +1499,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>累计赢金</t>
@@ -1551,7 +1516,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>辞旧岁</t>
@@ -1561,7 +1525,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1570,7 +1534,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>炸弹福利</t>
@@ -1588,7 +1551,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1598,7 +1560,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1607,7 +1569,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1625,7 +1586,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>浪漫情人节</t>
@@ -1643,7 +1603,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>新人七天乐</t>
@@ -1661,7 +1620,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>分享拉新</t>
@@ -1679,7 +1637,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>龙腾祈福</t>
@@ -1697,7 +1654,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1707,7 +1663,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1716,7 +1672,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1734,7 +1689,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1744,7 +1698,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1753,7 +1707,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1771,7 +1724,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1781,7 +1733,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1790,7 +1742,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼福利</t>
@@ -1808,7 +1759,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1818,7 +1768,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1827,7 +1777,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>有奖问答</t>
@@ -1845,7 +1794,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1855,7 +1803,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1864,7 +1812,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抽奖</t>
@@ -1882,7 +1829,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1892,7 +1838,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1901,7 +1847,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>礼物</t>
@@ -1919,7 +1864,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1929,7 +1873,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1938,7 +1882,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神模式</t>
@@ -1965,7 +1908,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树护苗</t>
@@ -1983,7 +1925,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树礼物</t>
@@ -2001,7 +1942,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹充值</t>
@@ -2019,7 +1959,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹收集</t>
@@ -2037,7 +1976,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹购买</t>
@@ -2064,7 +2002,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -2073,7 +2011,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元礼包</t>
@@ -2091,7 +2028,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>3D</t>
     </r>
@@ -2100,7 +2037,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼-幸运彩贝</t>
@@ -2127,7 +2063,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归惊喜</t>
@@ -2154,7 +2089,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>天女散花</t>
@@ -2172,7 +2106,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -2865,7 +2798,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2876,7 +2808,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3522,7 +3453,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3533,7 +3463,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3564,7 +3493,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3575,7 +3503,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3597,7 +3524,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3608,7 +3534,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3711,7 +3636,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3722,7 +3646,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3789,7 +3712,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3800,7 +3722,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3815,6 +3736,9 @@
   </si>
   <si>
     <t>通用礼包模板，永久</t>
+  </si>
+  <si>
+    <t>act_ty_gifts_style/act_002_hllb</t>
   </si>
   <si>
     <t>龙腾礼包</t>
@@ -3881,16 +3805,18 @@
 GotoUI 根据参数显示活动的界面
 </t>
   </si>
-  <si>
-    <t>act_ty_gifts_style/act_002_hllb</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3901,7 +3827,6 @@
     <font>
       <sz val="11"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3909,39 +3834,36 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3953,32 +3875,30 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3986,33 +3906,160 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4021,13 +4068,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39985351115451523"/>
+        <fgColor theme="4" tint="0.399853511154515"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4051,13 +4098,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.0999786370433668"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79985961485641044"/>
+        <fgColor theme="4" tint="0.79985961485641"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4069,18 +4116,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39985351115451523"/>
+        <fgColor theme="9" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -4103,13 +4336,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4148,13 +4623,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4278,19 +4753,63 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 4" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4548,19 +5067,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AJ335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C315" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C238" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C338" sqref="C338"/>
+      <selection pane="bottomRight" activeCell="E241" sqref="E241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4576,7 +5096,7 @@
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="78" customHeight="1">
+    <row r="1" ht="78" customHeight="1" spans="1:9">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4605,7 +5125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="2" ht="17.1" customHeight="1" spans="1:9">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -4631,7 +5151,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5">
+    <row r="3" ht="16.5" spans="1:9">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -4657,7 +5177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5">
+    <row r="4" ht="16.5" spans="1:9">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -4683,7 +5203,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5">
+    <row r="5" ht="16.5" spans="1:9">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -4709,7 +5229,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.5">
+    <row r="6" ht="16.5" spans="1:9">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -4735,7 +5255,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.5">
+    <row r="7" ht="16.5" spans="1:9">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -4761,7 +5281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16.5">
+    <row r="8" ht="16.5" spans="1:9">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -4787,7 +5307,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5">
+    <row r="9" ht="16.5" spans="1:9">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -4813,7 +5333,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.5">
+    <row r="10" ht="16.5" spans="1:9">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -4839,7 +5359,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.5">
+    <row r="11" ht="16.5" spans="1:9">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -4865,7 +5385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5">
+    <row r="12" ht="16.5" spans="1:9">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -4891,7 +5411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16.5">
+    <row r="13" ht="16.5" spans="1:9">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -4917,7 +5437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16.5">
+    <row r="14" ht="16.5" spans="1:9">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -4943,7 +5463,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16.5">
+    <row r="15" ht="16.5" spans="1:9">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -4969,7 +5489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16.5">
+    <row r="16" ht="16.5" spans="1:9">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -4995,7 +5515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16.5">
+    <row r="17" ht="16.5" spans="1:9">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -5021,7 +5541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16.5">
+    <row r="18" ht="16.5" spans="1:9">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -5047,7 +5567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16.5">
+    <row r="19" ht="16.5" spans="1:9">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -5073,7 +5593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16.5">
+    <row r="20" ht="16.5" spans="1:9">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -5099,7 +5619,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16.5">
+    <row r="21" ht="16.5" spans="1:9">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -5125,7 +5645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16.5">
+    <row r="22" ht="16.5" spans="1:9">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -5151,7 +5671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="16.5">
+    <row r="23" ht="16.5" spans="1:9">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -5177,7 +5697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16.5">
+    <row r="24" ht="16.5" spans="1:9">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -5203,7 +5723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16.5">
+    <row r="25" ht="16.5" spans="1:9">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -5229,7 +5749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16.5">
+    <row r="26" ht="16.5" spans="1:9">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -5255,7 +5775,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="16.5">
+    <row r="27" ht="16.5" spans="1:9">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -5281,7 +5801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16.5">
+    <row r="28" ht="16.5" spans="1:9">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -5307,7 +5827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="16.5">
+    <row r="29" ht="16.5" spans="1:9">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -5333,7 +5853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="16.5">
+    <row r="30" ht="16.5" spans="1:9">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -5359,7 +5879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="16.5">
+    <row r="31" ht="16.5" spans="1:9">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -5385,7 +5905,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="16.5">
+    <row r="32" ht="16.5" spans="1:9">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -5411,7 +5931,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="16.5">
+    <row r="33" ht="16.5" spans="1:9">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -5437,7 +5957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="16.5">
+    <row r="34" ht="16.5" spans="1:9">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -5463,7 +5983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="16.5">
+    <row r="35" ht="16.5" spans="1:9">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -5489,7 +6009,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="16.5">
+    <row r="36" ht="16.5" spans="1:9">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -5515,7 +6035,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="16.5">
+    <row r="37" ht="16.5" spans="1:9">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -5541,7 +6061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="16.5">
+    <row r="38" ht="16.5" spans="1:9">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -5567,7 +6087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="16.5">
+    <row r="39" ht="16.5" spans="1:9">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -5593,7 +6113,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="16.5">
+    <row r="40" ht="16.5" spans="1:9">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -5619,7 +6139,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="16.5">
+    <row r="41" ht="16.5" spans="1:9">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -5645,7 +6165,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="16.5">
+    <row r="42" ht="16.5" spans="1:9">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -5671,7 +6191,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="16.5">
+    <row r="43" ht="16.5" spans="1:9">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -5697,7 +6217,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="16.5">
+    <row r="44" ht="16.5" spans="1:9">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -5723,7 +6243,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="16.5">
+    <row r="45" ht="16.5" spans="1:9">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -5749,7 +6269,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="16.5">
+    <row r="46" ht="16.5" spans="1:9">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -5775,7 +6295,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="16.5">
+    <row r="47" ht="16.5" spans="1:9">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -5801,7 +6321,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="16.5">
+    <row r="48" ht="16.5" spans="1:9">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -5827,7 +6347,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="16.5">
+    <row r="49" ht="16.5" spans="1:9">
       <c r="A49" s="15">
         <v>48</v>
       </c>
@@ -5853,7 +6373,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="16.5">
+    <row r="50" ht="16.5" spans="1:9">
       <c r="A50" s="15">
         <v>49</v>
       </c>
@@ -5879,7 +6399,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="16.5">
+    <row r="51" ht="16.5" spans="1:9">
       <c r="A51" s="15">
         <v>50</v>
       </c>
@@ -5905,7 +6425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="16.5">
+    <row r="52" ht="16.5" spans="1:9">
       <c r="A52" s="15">
         <v>51</v>
       </c>
@@ -5929,7 +6449,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="24.75" customHeight="1">
+    <row r="53" ht="24.75" customHeight="1" spans="1:9">
       <c r="A53" s="15">
         <v>52</v>
       </c>
@@ -5955,7 +6475,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="16.5">
+    <row r="54" ht="16.5" spans="1:9">
       <c r="A54" s="15">
         <v>53</v>
       </c>
@@ -5981,7 +6501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="16.5">
+    <row r="55" ht="16.5" spans="1:9">
       <c r="A55" s="15">
         <v>54</v>
       </c>
@@ -6007,7 +6527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="16.5">
+    <row r="56" ht="16.5" spans="1:9">
       <c r="A56" s="15">
         <v>55</v>
       </c>
@@ -6033,7 +6553,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="16.5">
+    <row r="57" ht="16.5" spans="1:9">
       <c r="A57" s="15">
         <v>56</v>
       </c>
@@ -6059,7 +6579,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="16.5">
+    <row r="58" ht="16.5" spans="1:9">
       <c r="A58" s="15">
         <v>57</v>
       </c>
@@ -6085,7 +6605,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="16.5">
+    <row r="59" ht="16.5" spans="1:9">
       <c r="A59" s="15">
         <v>58</v>
       </c>
@@ -6111,7 +6631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="16.5">
+    <row r="60" ht="16.5" spans="1:9">
       <c r="A60" s="15">
         <v>59</v>
       </c>
@@ -6137,7 +6657,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="16.5">
+    <row r="61" ht="16.5" spans="1:9">
       <c r="A61" s="15">
         <v>60</v>
       </c>
@@ -6163,7 +6683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="16.5">
+    <row r="62" ht="16.5" spans="1:9">
       <c r="A62" s="15">
         <v>61</v>
       </c>
@@ -6189,7 +6709,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="16.5">
+    <row r="63" ht="16.5" spans="1:9">
       <c r="A63" s="15">
         <v>62</v>
       </c>
@@ -6215,7 +6735,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="16.5">
+    <row r="64" ht="16.5" spans="1:9">
       <c r="A64" s="15">
         <v>63</v>
       </c>
@@ -6241,7 +6761,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="16.5">
+    <row r="65" ht="16.5" spans="1:9">
       <c r="A65" s="15">
         <v>64</v>
       </c>
@@ -6267,7 +6787,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="16.5">
+    <row r="66" ht="16.5" spans="1:9">
       <c r="A66" s="15">
         <v>65</v>
       </c>
@@ -6293,7 +6813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="16.5">
+    <row r="67" ht="16.5" spans="1:9">
       <c r="A67" s="15">
         <v>66</v>
       </c>
@@ -6319,7 +6839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="16.5">
+    <row r="68" ht="16.5" spans="1:9">
       <c r="A68" s="15">
         <v>67</v>
       </c>
@@ -6345,7 +6865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="16.5">
+    <row r="69" ht="16.5" spans="1:9">
       <c r="A69" s="15">
         <v>68</v>
       </c>
@@ -6371,7 +6891,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="16.5">
+    <row r="70" ht="16.5" spans="1:9">
       <c r="A70" s="15">
         <v>69</v>
       </c>
@@ -6397,7 +6917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="16.5">
+    <row r="71" ht="16.5" spans="1:9">
       <c r="A71" s="15">
         <v>70</v>
       </c>
@@ -6423,7 +6943,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="16.5">
+    <row r="72" ht="16.5" spans="1:9">
       <c r="A72" s="15">
         <v>71</v>
       </c>
@@ -6449,7 +6969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="16.5">
+    <row r="73" ht="16.5" spans="1:9">
       <c r="A73" s="15">
         <v>72</v>
       </c>
@@ -6475,7 +6995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="2" customFormat="1" ht="16.5">
+    <row r="74" s="2" customFormat="1" ht="16.5" spans="1:9">
       <c r="A74" s="15">
         <v>73</v>
       </c>
@@ -6501,7 +7021,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="16.5">
+    <row r="75" ht="16.5" spans="1:9">
       <c r="A75" s="15">
         <v>74</v>
       </c>
@@ -6527,7 +7047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="3" customFormat="1" ht="16.5">
+    <row r="76" s="3" customFormat="1" ht="16.5" spans="1:9">
       <c r="A76" s="15">
         <v>75</v>
       </c>
@@ -6553,7 +7073,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="16.5">
+    <row r="77" ht="16.5" spans="1:9">
       <c r="A77" s="15">
         <v>76</v>
       </c>
@@ -6579,7 +7099,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="16.5">
+    <row r="78" ht="16.5" spans="1:9">
       <c r="A78" s="15">
         <v>77</v>
       </c>
@@ -6605,7 +7125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="16.5">
+    <row r="79" ht="16.5" spans="1:9">
       <c r="A79" s="15">
         <v>78</v>
       </c>
@@ -6631,7 +7151,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="16.5">
+    <row r="80" ht="16.5" spans="1:9">
       <c r="A80" s="15">
         <v>79</v>
       </c>
@@ -6657,7 +7177,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="16.5">
+    <row r="81" ht="16.5" spans="1:9">
       <c r="A81" s="15">
         <v>80</v>
       </c>
@@ -6683,7 +7203,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="16.5">
+    <row r="82" ht="16.5" spans="1:9">
       <c r="A82" s="15">
         <v>81</v>
       </c>
@@ -6709,7 +7229,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="16.5">
+    <row r="83" ht="16.5" spans="1:9">
       <c r="A83" s="15">
         <v>82</v>
       </c>
@@ -6735,7 +7255,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="16.5">
+    <row r="84" ht="16.5" spans="1:9">
       <c r="A84" s="15">
         <v>83</v>
       </c>
@@ -6761,7 +7281,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="16.5">
+    <row r="85" ht="16.5" spans="1:9">
       <c r="A85" s="15">
         <v>84</v>
       </c>
@@ -6787,7 +7307,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="16.5">
+    <row r="86" ht="16.5" spans="1:9">
       <c r="A86" s="15">
         <v>85</v>
       </c>
@@ -6813,7 +7333,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="16.5">
+    <row r="87" ht="16.5" spans="1:9">
       <c r="A87" s="15">
         <v>86</v>
       </c>
@@ -6839,7 +7359,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="16.5">
+    <row r="88" ht="16.5" spans="1:9">
       <c r="A88" s="15">
         <v>87</v>
       </c>
@@ -6865,7 +7385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="16.5">
+    <row r="89" ht="16.5" spans="1:9">
       <c r="A89" s="15">
         <v>88</v>
       </c>
@@ -6891,7 +7411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="16.5">
+    <row r="90" ht="16.5" spans="1:9">
       <c r="A90" s="15">
         <v>89</v>
       </c>
@@ -6917,7 +7437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="16.5">
+    <row r="91" ht="16.5" spans="1:9">
       <c r="A91" s="15">
         <v>90</v>
       </c>
@@ -6943,7 +7463,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="16.5">
+    <row r="92" ht="16.5" spans="1:9">
       <c r="A92" s="15">
         <v>91</v>
       </c>
@@ -6969,7 +7489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="16.5">
+    <row r="93" ht="16.5" spans="1:9">
       <c r="A93" s="15">
         <v>92</v>
       </c>
@@ -6995,7 +7515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="16.5">
+    <row r="94" ht="16.5" spans="1:9">
       <c r="A94" s="15">
         <v>93</v>
       </c>
@@ -7021,7 +7541,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="16.5">
+    <row r="95" ht="16.5" spans="1:9">
       <c r="A95" s="15">
         <v>94</v>
       </c>
@@ -7047,7 +7567,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="16.5">
+    <row r="96" ht="16.5" spans="1:9">
       <c r="A96" s="15">
         <v>95</v>
       </c>
@@ -7073,7 +7593,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="16.5">
+    <row r="97" ht="16.5" spans="1:9">
       <c r="A97" s="15">
         <v>96</v>
       </c>
@@ -7099,7 +7619,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="16.5">
+    <row r="98" ht="16.5" spans="1:9">
       <c r="A98" s="15">
         <v>97</v>
       </c>
@@ -7125,7 +7645,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="16.5">
+    <row r="99" ht="16.5" spans="1:9">
       <c r="A99" s="15">
         <v>98</v>
       </c>
@@ -7151,7 +7671,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="16.5">
+    <row r="100" ht="16.5" spans="1:9">
       <c r="A100" s="15">
         <v>99</v>
       </c>
@@ -7177,7 +7697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="16.5">
+    <row r="101" ht="16.5" spans="1:9">
       <c r="A101" s="15">
         <v>100</v>
       </c>
@@ -7203,7 +7723,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="16.5">
+    <row r="102" ht="16.5" spans="1:9">
       <c r="A102" s="15">
         <v>101</v>
       </c>
@@ -7229,7 +7749,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="16.5">
+    <row r="103" ht="16.5" spans="1:9">
       <c r="A103" s="15">
         <v>102</v>
       </c>
@@ -7255,7 +7775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="16.5">
+    <row r="104" ht="16.5" spans="1:9">
       <c r="A104" s="15">
         <v>103</v>
       </c>
@@ -7281,7 +7801,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="16.5">
+    <row r="105" ht="16.5" spans="1:9">
       <c r="A105" s="15">
         <v>104</v>
       </c>
@@ -7307,7 +7827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="16.5">
+    <row r="106" ht="16.5" spans="1:9">
       <c r="A106" s="15">
         <v>105</v>
       </c>
@@ -7333,7 +7853,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="16.5">
+    <row r="107" ht="16.5" spans="1:9">
       <c r="A107" s="15">
         <v>106</v>
       </c>
@@ -7359,7 +7879,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="16.5">
+    <row r="108" ht="16.5" spans="1:9">
       <c r="A108" s="15">
         <v>107</v>
       </c>
@@ -7385,7 +7905,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="16.5">
+    <row r="109" ht="16.5" spans="1:9">
       <c r="A109" s="15">
         <v>108</v>
       </c>
@@ -7411,7 +7931,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="16.5">
+    <row r="110" ht="16.5" spans="1:9">
       <c r="A110" s="15">
         <v>109</v>
       </c>
@@ -7437,7 +7957,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="16.5">
+    <row r="111" ht="16.5" spans="1:9">
       <c r="A111" s="15">
         <v>110</v>
       </c>
@@ -7463,7 +7983,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="16.5">
+    <row r="112" ht="16.5" spans="1:9">
       <c r="A112" s="15">
         <v>111</v>
       </c>
@@ -7489,7 +8009,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="16.5">
+    <row r="113" ht="16.5" spans="1:9">
       <c r="A113" s="15">
         <v>112</v>
       </c>
@@ -7515,7 +8035,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="16.5">
+    <row r="114" ht="16.5" spans="1:9">
       <c r="A114" s="15">
         <v>113</v>
       </c>
@@ -7541,7 +8061,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="16.5">
+    <row r="115" ht="16.5" spans="1:9">
       <c r="A115" s="15">
         <v>114</v>
       </c>
@@ -7567,7 +8087,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="16.5">
+    <row r="116" ht="16.5" spans="1:9">
       <c r="A116" s="15">
         <v>115</v>
       </c>
@@ -7593,7 +8113,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="16.5">
+    <row r="117" ht="16.5" spans="1:9">
       <c r="A117" s="15">
         <v>116</v>
       </c>
@@ -7619,7 +8139,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="16.5">
+    <row r="118" ht="16.5" spans="1:9">
       <c r="A118" s="15">
         <v>117</v>
       </c>
@@ -7645,7 +8165,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="4" customFormat="1" ht="16.5">
+    <row r="119" s="4" customFormat="1" ht="16.5" spans="1:9">
       <c r="A119" s="24">
         <v>118</v>
       </c>
@@ -7671,7 +8191,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="16.5">
+    <row r="120" ht="16.5" spans="1:9">
       <c r="A120" s="15">
         <v>119</v>
       </c>
@@ -7697,7 +8217,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="16.5">
+    <row r="121" ht="16.5" spans="1:9">
       <c r="A121" s="15">
         <v>120</v>
       </c>
@@ -7723,7 +8243,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="16.5">
+    <row r="122" ht="16.5" spans="1:9">
       <c r="A122" s="15">
         <v>121</v>
       </c>
@@ -7749,7 +8269,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="16.5">
+    <row r="123" ht="16.5" spans="1:9">
       <c r="A123" s="15">
         <v>122</v>
       </c>
@@ -7775,7 +8295,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="16.5">
+    <row r="124" ht="16.5" spans="1:9">
       <c r="A124" s="15">
         <v>123</v>
       </c>
@@ -7801,7 +8321,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="16.5">
+    <row r="125" ht="16.5" spans="1:9">
       <c r="A125" s="15">
         <v>124</v>
       </c>
@@ -7827,7 +8347,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="16.5">
+    <row r="126" ht="16.5" spans="1:9">
       <c r="A126" s="15">
         <v>125</v>
       </c>
@@ -7853,7 +8373,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="16.5">
+    <row r="127" ht="16.5" spans="1:9">
       <c r="A127" s="15">
         <v>126</v>
       </c>
@@ -7879,7 +8399,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="16.5">
+    <row r="128" ht="16.5" spans="1:9">
       <c r="A128" s="15">
         <v>127</v>
       </c>
@@ -7905,7 +8425,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="16.5">
+    <row r="129" ht="16.5" spans="1:9">
       <c r="A129" s="15">
         <v>128</v>
       </c>
@@ -7931,7 +8451,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="16.5">
+    <row r="130" ht="16.5" spans="1:9">
       <c r="A130" s="15">
         <v>129</v>
       </c>
@@ -7957,7 +8477,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="16.5">
+    <row r="131" ht="16.5" spans="1:9">
       <c r="A131" s="15">
         <v>130</v>
       </c>
@@ -7983,7 +8503,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="16.5">
+    <row r="132" ht="16.5" spans="1:9">
       <c r="A132" s="15">
         <v>131</v>
       </c>
@@ -8009,7 +8529,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="16.5">
+    <row r="133" ht="16.5" spans="1:9">
       <c r="A133" s="15">
         <v>132</v>
       </c>
@@ -8035,7 +8555,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="16.5">
+    <row r="134" ht="16.5" spans="1:9">
       <c r="A134" s="15">
         <v>133</v>
       </c>
@@ -8061,7 +8581,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="16.5">
+    <row r="135" ht="16.5" spans="1:9">
       <c r="A135" s="15">
         <v>134</v>
       </c>
@@ -8087,7 +8607,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="16.5">
+    <row r="136" ht="16.5" spans="1:9">
       <c r="A136" s="15">
         <v>135</v>
       </c>
@@ -8113,7 +8633,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="16.5">
+    <row r="137" ht="16.5" spans="1:9">
       <c r="A137" s="15">
         <v>136</v>
       </c>
@@ -8139,7 +8659,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="16.5">
+    <row r="138" ht="16.5" spans="1:9">
       <c r="A138" s="15">
         <v>137</v>
       </c>
@@ -8165,7 +8685,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="16.5">
+    <row r="139" ht="16.5" spans="1:9">
       <c r="A139" s="15">
         <v>138</v>
       </c>
@@ -8191,7 +8711,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="16.5">
+    <row r="140" ht="16.5" spans="1:9">
       <c r="A140" s="15">
         <v>139</v>
       </c>
@@ -8217,7 +8737,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="16.5">
+    <row r="141" ht="16.5" spans="1:9">
       <c r="A141" s="15">
         <v>140</v>
       </c>
@@ -8243,7 +8763,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="16.5">
+    <row r="142" ht="16.5" spans="1:9">
       <c r="A142" s="15">
         <v>141</v>
       </c>
@@ -8269,7 +8789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="16.5">
+    <row r="143" ht="16.5" spans="1:9">
       <c r="A143" s="15">
         <v>142</v>
       </c>
@@ -8295,7 +8815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="16.5">
+    <row r="144" ht="16.5" spans="1:9">
       <c r="A144" s="15">
         <v>143</v>
       </c>
@@ -8321,7 +8841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="16.5">
+    <row r="145" ht="16.5" spans="1:9">
       <c r="A145" s="15">
         <v>144</v>
       </c>
@@ -8347,7 +8867,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="16.5">
+    <row r="146" ht="16.5" spans="1:9">
       <c r="A146" s="15">
         <v>145</v>
       </c>
@@ -8373,7 +8893,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="16.5">
+    <row r="147" ht="16.5" spans="1:9">
       <c r="A147" s="15">
         <v>146</v>
       </c>
@@ -8399,7 +8919,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="16.5">
+    <row r="148" ht="16.5" spans="1:9">
       <c r="A148" s="15">
         <v>147</v>
       </c>
@@ -8425,7 +8945,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="16.5">
+    <row r="149" ht="16.5" spans="1:9">
       <c r="A149" s="15">
         <v>148</v>
       </c>
@@ -8451,7 +8971,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="16.5">
+    <row r="150" ht="16.5" spans="1:9">
       <c r="A150" s="15">
         <v>149</v>
       </c>
@@ -8477,7 +8997,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="16.5">
+    <row r="151" ht="16.5" spans="1:9">
       <c r="A151" s="15">
         <v>150</v>
       </c>
@@ -8503,7 +9023,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="16.5">
+    <row r="152" ht="16.5" spans="1:9">
       <c r="A152" s="15">
         <v>151</v>
       </c>
@@ -8529,7 +9049,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="16.5">
+    <row r="153" ht="16.5" spans="1:9">
       <c r="A153" s="15">
         <v>152</v>
       </c>
@@ -8555,7 +9075,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="16.5">
+    <row r="154" ht="16.5" spans="1:9">
       <c r="A154" s="15">
         <v>153</v>
       </c>
@@ -8581,7 +9101,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="16.5">
+    <row r="155" ht="16.5" spans="1:9">
       <c r="A155" s="15">
         <v>154</v>
       </c>
@@ -8607,7 +9127,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="16.5">
+    <row r="156" ht="16.5" spans="1:9">
       <c r="A156" s="15">
         <v>155</v>
       </c>
@@ -8633,7 +9153,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="16.5">
+    <row r="157" ht="16.5" spans="1:9">
       <c r="A157" s="15">
         <v>156</v>
       </c>
@@ -8659,7 +9179,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="16.5">
+    <row r="158" ht="16.5" spans="1:9">
       <c r="A158" s="15">
         <v>157</v>
       </c>
@@ -8685,7 +9205,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="16.5">
+    <row r="159" ht="16.5" spans="1:9">
       <c r="A159" s="15">
         <v>158</v>
       </c>
@@ -8711,7 +9231,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="16.5">
+    <row r="160" ht="16.5" spans="1:9">
       <c r="A160" s="15">
         <v>159</v>
       </c>
@@ -8737,7 +9257,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="16.5">
+    <row r="161" ht="16.5" spans="1:9">
       <c r="A161" s="15">
         <v>160</v>
       </c>
@@ -8763,7 +9283,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="16.5">
+    <row r="162" ht="16.5" spans="1:9">
       <c r="A162" s="15">
         <v>161</v>
       </c>
@@ -8789,7 +9309,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="16.5">
+    <row r="163" ht="16.5" spans="1:9">
       <c r="A163" s="15">
         <v>162</v>
       </c>
@@ -8815,7 +9335,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="16.5">
+    <row r="164" ht="16.5" spans="1:9">
       <c r="A164" s="15">
         <v>163</v>
       </c>
@@ -8841,7 +9361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="16.5">
+    <row r="165" ht="16.5" spans="1:9">
       <c r="A165" s="15">
         <v>164</v>
       </c>
@@ -8867,7 +9387,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="16.5">
+    <row r="166" ht="16.5" spans="1:9">
       <c r="A166" s="15">
         <v>165</v>
       </c>
@@ -8893,7 +9413,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="16.5">
+    <row r="167" ht="16.5" spans="1:9">
       <c r="A167" s="15">
         <v>166</v>
       </c>
@@ -8919,7 +9439,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="16.5">
+    <row r="168" ht="16.5" spans="1:9">
       <c r="A168" s="15">
         <v>167</v>
       </c>
@@ -8945,7 +9465,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="16.5">
+    <row r="169" ht="16.5" spans="1:9">
       <c r="A169" s="15">
         <v>168</v>
       </c>
@@ -8969,7 +9489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="16.5">
+    <row r="170" ht="16.5" spans="1:9">
       <c r="A170" s="15">
         <v>169</v>
       </c>
@@ -8993,7 +9513,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="16.5">
+    <row r="171" ht="16.5" spans="1:9">
       <c r="A171" s="15">
         <v>170</v>
       </c>
@@ -9017,7 +9537,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="16.5">
+    <row r="172" ht="16.5" spans="1:9">
       <c r="A172" s="15">
         <v>171</v>
       </c>
@@ -9041,7 +9561,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="16.5">
+    <row r="173" ht="16.5" spans="1:9">
       <c r="A173" s="15">
         <v>172</v>
       </c>
@@ -9067,7 +9587,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="16.5">
+    <row r="174" ht="16.5" spans="1:9">
       <c r="A174" s="15">
         <v>173</v>
       </c>
@@ -9091,7 +9611,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="16.5">
+    <row r="175" ht="16.5" spans="1:9">
       <c r="A175" s="15">
         <v>174</v>
       </c>
@@ -9115,7 +9635,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="16.5">
+    <row r="176" ht="16.5" spans="1:9">
       <c r="A176" s="15">
         <v>175</v>
       </c>
@@ -9139,7 +9659,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="16.5">
+    <row r="177" ht="16.5" spans="1:9">
       <c r="A177" s="15">
         <v>176</v>
       </c>
@@ -9165,7 +9685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="16.5">
+    <row r="178" ht="16.5" spans="1:9">
       <c r="A178" s="15">
         <v>177</v>
       </c>
@@ -9191,7 +9711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="16.5">
+    <row r="179" ht="16.5" spans="1:9">
       <c r="A179" s="15">
         <v>178</v>
       </c>
@@ -9215,7 +9735,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="4" customFormat="1" ht="16.5">
+    <row r="180" s="4" customFormat="1" ht="16.5" spans="1:9">
       <c r="A180" s="15">
         <v>179</v>
       </c>
@@ -9239,7 +9759,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" spans="1:9" s="4" customFormat="1" ht="16.5">
+    <row r="181" s="4" customFormat="1" ht="16.5" spans="1:9">
       <c r="A181" s="15">
         <v>180</v>
       </c>
@@ -9263,7 +9783,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="4" customFormat="1" ht="16.5">
+    <row r="182" s="4" customFormat="1" ht="16.5" spans="1:9">
       <c r="A182" s="15">
         <v>181</v>
       </c>
@@ -9287,7 +9807,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="16.5">
+    <row r="183" ht="16.5" spans="1:9">
       <c r="A183" s="15">
         <v>182</v>
       </c>
@@ -9310,7 +9830,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="16.5">
+    <row r="184" ht="16.5" spans="1:9">
       <c r="A184" s="15">
         <v>183</v>
       </c>
@@ -9333,7 +9853,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="16.5">
+    <row r="185" ht="16.5" spans="1:9">
       <c r="A185" s="15">
         <v>184</v>
       </c>
@@ -9356,7 +9876,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="16.5">
+    <row r="186" ht="16.5" spans="1:9">
       <c r="A186" s="15">
         <v>185</v>
       </c>
@@ -9379,7 +9899,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="16.5">
+    <row r="187" ht="16.5" spans="1:9">
       <c r="A187" s="15">
         <v>186</v>
       </c>
@@ -9402,7 +9922,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="16.5">
+    <row r="188" ht="16.5" spans="1:9">
       <c r="A188" s="15">
         <v>187</v>
       </c>
@@ -9425,7 +9945,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="16.5">
+    <row r="189" ht="16.5" spans="1:9">
       <c r="A189" s="15">
         <v>188</v>
       </c>
@@ -9448,7 +9968,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="16.5">
+    <row r="190" ht="16.5" spans="1:9">
       <c r="A190" s="15">
         <v>189</v>
       </c>
@@ -9471,7 +9991,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="16.5">
+    <row r="191" ht="16.5" spans="1:9">
       <c r="A191" s="15">
         <v>190</v>
       </c>
@@ -9494,7 +10014,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="16.5">
+    <row r="192" ht="16.5" spans="1:9">
       <c r="A192" s="15">
         <v>191</v>
       </c>
@@ -9517,7 +10037,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="16.5">
+    <row r="193" ht="16.5" spans="1:9">
       <c r="A193" s="15">
         <v>192</v>
       </c>
@@ -9540,7 +10060,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="16.5">
+    <row r="194" ht="16.5" spans="1:9">
       <c r="A194" s="15">
         <v>193</v>
       </c>
@@ -9563,7 +10083,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="16.5">
+    <row r="195" ht="16.5" spans="1:9">
       <c r="A195" s="15">
         <v>194</v>
       </c>
@@ -9586,7 +10106,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="16.5">
+    <row r="196" ht="16.5" spans="1:9">
       <c r="A196" s="15">
         <v>195</v>
       </c>
@@ -9609,7 +10129,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="16.5">
+    <row r="197" ht="16.5" spans="1:9">
       <c r="A197" s="15">
         <v>196</v>
       </c>
@@ -9632,7 +10152,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="16.5">
+    <row r="198" ht="16.5" spans="1:9">
       <c r="A198" s="15">
         <v>197</v>
       </c>
@@ -9655,7 +10175,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="16.5">
+    <row r="199" ht="16.5" spans="1:9">
       <c r="A199" s="15">
         <v>198</v>
       </c>
@@ -9678,7 +10198,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="16.5">
+    <row r="200" ht="16.5" spans="1:9">
       <c r="A200" s="15">
         <v>199</v>
       </c>
@@ -9701,7 +10221,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="16.5">
+    <row r="201" ht="16.5" spans="1:9">
       <c r="A201" s="15">
         <v>200</v>
       </c>
@@ -9724,7 +10244,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="16.5">
+    <row r="202" ht="16.5" spans="1:9">
       <c r="A202" s="15">
         <v>201</v>
       </c>
@@ -9747,7 +10267,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="16.5">
+    <row r="203" ht="16.5" spans="1:9">
       <c r="A203" s="15">
         <v>202</v>
       </c>
@@ -9770,7 +10290,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="16.5">
+    <row r="204" ht="16.5" spans="1:9">
       <c r="A204" s="15">
         <v>203</v>
       </c>
@@ -9796,7 +10316,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="16.5">
+    <row r="205" ht="16.5" spans="1:9">
       <c r="A205" s="15">
         <v>204</v>
       </c>
@@ -9822,7 +10342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="16.5">
+    <row r="206" ht="16.5" spans="1:9">
       <c r="A206" s="15">
         <v>205</v>
       </c>
@@ -9848,7 +10368,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="16.5">
+    <row r="207" ht="16.5" spans="1:9">
       <c r="A207" s="15">
         <v>206</v>
       </c>
@@ -9871,7 +10391,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="16.5">
+    <row r="208" ht="16.5" spans="1:9">
       <c r="A208" s="15">
         <v>207</v>
       </c>
@@ -9894,7 +10414,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="16.5">
+    <row r="209" ht="16.5" spans="1:9">
       <c r="A209" s="15">
         <v>208</v>
       </c>
@@ -9917,7 +10437,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="16.5">
+    <row r="210" ht="16.5" spans="1:9">
       <c r="A210" s="15">
         <v>209</v>
       </c>
@@ -9940,7 +10460,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="16.5">
+    <row r="211" ht="16.5" spans="1:9">
       <c r="A211" s="15">
         <v>210</v>
       </c>
@@ -9963,7 +10483,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="16.5">
+    <row r="212" ht="16.5" spans="1:9">
       <c r="A212" s="15">
         <v>211</v>
       </c>
@@ -9986,7 +10506,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="16.5">
+    <row r="213" ht="16.5" spans="1:9">
       <c r="A213" s="15">
         <v>212</v>
       </c>
@@ -10009,7 +10529,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="16.5">
+    <row r="214" ht="16.5" spans="1:9">
       <c r="A214" s="15">
         <v>213</v>
       </c>
@@ -10032,7 +10552,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="16.5">
+    <row r="215" ht="16.5" spans="1:9">
       <c r="A215" s="15">
         <v>214</v>
       </c>
@@ -10055,7 +10575,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="16.5">
+    <row r="216" ht="16.5" spans="1:9">
       <c r="A216" s="15">
         <v>215</v>
       </c>
@@ -10078,7 +10598,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="16.5">
+    <row r="217" ht="16.5" spans="1:9">
       <c r="A217" s="15">
         <v>216</v>
       </c>
@@ -10101,7 +10621,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="16.5">
+    <row r="218" ht="16.5" spans="1:9">
       <c r="A218" s="15">
         <v>217</v>
       </c>
@@ -10124,7 +10644,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="16.5">
+    <row r="219" ht="16.5" spans="1:9">
       <c r="A219" s="15">
         <v>218</v>
       </c>
@@ -10147,7 +10667,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="16.5">
+    <row r="220" ht="16.5" spans="1:9">
       <c r="A220" s="15">
         <v>219</v>
       </c>
@@ -10170,7 +10690,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="16.5">
+    <row r="221" ht="16.5" spans="1:9">
       <c r="A221" s="15">
         <v>220</v>
       </c>
@@ -10193,7 +10713,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="16.5">
+    <row r="222" ht="16.5" spans="1:9">
       <c r="A222" s="15">
         <v>221</v>
       </c>
@@ -10216,7 +10736,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="16.5">
+    <row r="223" ht="16.5" spans="1:9">
       <c r="A223" s="15">
         <v>222</v>
       </c>
@@ -10239,7 +10759,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="16.5">
+    <row r="224" ht="16.5" spans="1:9">
       <c r="A224" s="15">
         <v>223</v>
       </c>
@@ -10262,7 +10782,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="16.5">
+    <row r="225" ht="16.5" spans="1:9">
       <c r="A225" s="15">
         <v>224</v>
       </c>
@@ -10285,7 +10805,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="16.5">
+    <row r="226" ht="16.5" spans="1:7">
       <c r="A226" s="15">
         <v>225</v>
       </c>
@@ -10308,7 +10828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="16.5">
+    <row r="227" ht="16.5" spans="1:7">
       <c r="A227" s="15">
         <v>226</v>
       </c>
@@ -10331,7 +10851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="16.5">
+    <row r="228" ht="16.5" spans="1:7">
       <c r="A228" s="15">
         <v>227</v>
       </c>
@@ -10354,7 +10874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="16.5">
+    <row r="229" ht="16.5" spans="1:7">
       <c r="A229" s="15">
         <v>228</v>
       </c>
@@ -10377,7 +10897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="16.5">
+    <row r="230" ht="16.5" spans="1:7">
       <c r="A230" s="15">
         <v>229</v>
       </c>
@@ -10400,7 +10920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="16.5">
+    <row r="231" ht="16.5" spans="1:7">
       <c r="A231" s="15">
         <v>230</v>
       </c>
@@ -10423,7 +10943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="16.5">
+    <row r="232" ht="16.5" spans="1:7">
       <c r="A232" s="15">
         <v>231</v>
       </c>
@@ -10446,7 +10966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="16.5">
+    <row r="233" ht="16.5" spans="1:7">
       <c r="A233" s="15">
         <v>232</v>
       </c>
@@ -10469,7 +10989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="16.5">
+    <row r="234" ht="16.5" spans="1:7">
       <c r="A234" s="15">
         <v>233</v>
       </c>
@@ -10492,7 +11012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="16.5">
+    <row r="235" ht="16.5" spans="1:9">
       <c r="A235" s="15">
         <v>234</v>
       </c>
@@ -10518,7 +11038,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="16.5">
+    <row r="236" ht="16.5" spans="1:9">
       <c r="A236" s="15">
         <v>235</v>
       </c>
@@ -10544,7 +11064,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="16.5">
+    <row r="237" ht="16.5" spans="1:9">
       <c r="A237" s="15">
         <v>236</v>
       </c>
@@ -10570,7 +11090,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="16.5">
+    <row r="238" ht="16.5" spans="1:9">
       <c r="A238" s="15">
         <v>237</v>
       </c>
@@ -10584,7 +11104,7 @@
         <v>677</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F238">
         <v>1</v>
@@ -10596,7 +11116,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="16.5">
+    <row r="239" ht="16.5" spans="1:9">
       <c r="A239" s="15">
         <v>238</v>
       </c>
@@ -10622,7 +11142,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="16.5">
+    <row r="240" ht="16.5" spans="1:9">
       <c r="A240" s="15">
         <v>239</v>
       </c>
@@ -10648,7 +11168,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="16.5">
+    <row r="241" ht="16.5" spans="1:9">
       <c r="A241" s="15">
         <v>240</v>
       </c>
@@ -10674,7 +11194,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="16.5">
+    <row r="242" ht="16.5" spans="1:9">
       <c r="A242" s="15">
         <v>241</v>
       </c>
@@ -10700,7 +11220,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="16.5">
+    <row r="243" ht="16.5" spans="1:9">
       <c r="A243" s="15">
         <v>242</v>
       </c>
@@ -10726,7 +11246,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="16.5">
+    <row r="244" ht="16.5" spans="1:9">
       <c r="A244" s="15">
         <v>243</v>
       </c>
@@ -10752,7 +11272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="16.5">
+    <row r="245" ht="16.5" spans="1:9">
       <c r="A245" s="15">
         <v>244</v>
       </c>
@@ -10778,7 +11298,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="16.5">
+    <row r="246" ht="16.5" spans="1:9">
       <c r="A246" s="15">
         <v>245</v>
       </c>
@@ -10804,7 +11324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="16.5">
+    <row r="247" ht="16.5" spans="1:9">
       <c r="A247" s="15">
         <v>246</v>
       </c>
@@ -10830,7 +11350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="16.5">
+    <row r="248" ht="16.5" spans="1:9">
       <c r="A248" s="15">
         <v>247</v>
       </c>
@@ -10856,7 +11376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="16.5">
+    <row r="249" ht="16.5" spans="1:9">
       <c r="A249" s="15">
         <v>248</v>
       </c>
@@ -10882,7 +11402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="16.5">
+    <row r="250" ht="16.5" spans="1:9">
       <c r="A250" s="15">
         <v>249</v>
       </c>
@@ -10908,7 +11428,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="16.5">
+    <row r="251" ht="16.5" spans="1:9">
       <c r="A251" s="15">
         <v>250</v>
       </c>
@@ -10934,7 +11454,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="16.5">
+    <row r="252" ht="16.5" spans="1:9">
       <c r="A252" s="15">
         <v>251</v>
       </c>
@@ -10960,7 +11480,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="16.5">
+    <row r="253" ht="16.5" spans="1:9">
       <c r="A253" s="15">
         <v>252</v>
       </c>
@@ -10987,7 +11507,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="16.5">
+    <row r="254" ht="16.5" spans="1:9">
       <c r="A254" s="15">
         <v>253</v>
       </c>
@@ -11013,7 +11533,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="16.5">
+    <row r="255" ht="16.5" spans="1:9">
       <c r="A255" s="15">
         <v>254</v>
       </c>
@@ -11039,7 +11559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="1:9" s="3" customFormat="1" ht="16.5">
+    <row r="256" s="3" customFormat="1" ht="16.5" spans="1:9">
       <c r="A256" s="15">
         <v>255</v>
       </c>
@@ -11066,7 +11586,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="257" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A257" s="15">
         <v>256</v>
       </c>
@@ -11092,7 +11612,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="258" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="258" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A258" s="15">
         <v>257</v>
       </c>
@@ -11118,7 +11638,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="259" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="259" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A259" s="15">
         <v>258</v>
       </c>
@@ -11144,7 +11664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="260" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A260" s="15">
         <v>259</v>
       </c>
@@ -11170,7 +11690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="16.5">
+    <row r="261" ht="16.5" spans="1:9">
       <c r="A261" s="15">
         <v>260</v>
       </c>
@@ -11196,7 +11716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="16.5">
+    <row r="262" ht="16.5" spans="1:9">
       <c r="A262" s="15">
         <v>261</v>
       </c>
@@ -11222,7 +11742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="263" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A263" s="15">
         <v>262</v>
       </c>
@@ -11248,7 +11768,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="264" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="264" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A264" s="15">
         <v>263</v>
       </c>
@@ -11274,7 +11794,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="265" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A265" s="15">
         <v>264</v>
       </c>
@@ -11300,7 +11820,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="266" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="266" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A266" s="15">
         <v>265</v>
       </c>
@@ -11326,7 +11846,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="267" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="267" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A267" s="15">
         <v>266</v>
       </c>
@@ -11352,7 +11872,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="268" spans="1:9" s="4" customFormat="1" ht="16.5">
+    <row r="268" s="4" customFormat="1" ht="16.5" spans="1:9">
       <c r="A268" s="24">
         <v>267</v>
       </c>
@@ -11378,7 +11898,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="269" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="269" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A269" s="15">
         <v>268</v>
       </c>
@@ -11404,7 +11924,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="270" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="270" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A270" s="15">
         <v>269</v>
       </c>
@@ -11430,7 +11950,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="271" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="271" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A271" s="15">
         <v>270</v>
       </c>
@@ -11456,7 +11976,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="272" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="272" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A272" s="15">
         <v>271</v>
       </c>
@@ -11482,7 +12002,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="273" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="273" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A273" s="15">
         <v>272</v>
       </c>
@@ -11508,7 +12028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="274" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="274" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A274" s="15">
         <v>273</v>
       </c>
@@ -11534,7 +12054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="275" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A275" s="15">
         <v>274</v>
       </c>
@@ -11560,7 +12080,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="276" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="276" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A276" s="35">
         <v>275</v>
       </c>
@@ -11583,7 +12103,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="277" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="277" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A277" s="15">
         <v>276</v>
       </c>
@@ -11609,7 +12129,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="16.5">
+    <row r="278" ht="16.5" spans="1:9">
       <c r="A278" s="15">
         <v>277</v>
       </c>
@@ -11635,7 +12155,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="16.5">
+    <row r="279" ht="16.5" spans="1:9">
       <c r="A279" s="15">
         <v>278</v>
       </c>
@@ -11658,7 +12178,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="16.5">
+    <row r="280" ht="16.5" spans="1:9">
       <c r="A280" s="15">
         <v>279</v>
       </c>
@@ -11684,7 +12204,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="16.5">
+    <row r="281" ht="16.5" spans="1:9">
       <c r="A281" s="15">
         <v>280</v>
       </c>
@@ -11710,7 +12230,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="16.5">
+    <row r="282" ht="16.5" spans="1:9">
       <c r="A282" s="15">
         <v>281</v>
       </c>
@@ -11736,7 +12256,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="16.5">
+    <row r="283" ht="16.5" spans="1:9">
       <c r="A283" s="15">
         <v>282</v>
       </c>
@@ -11762,7 +12282,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" spans="1:9" s="7" customFormat="1" ht="16.5">
+    <row r="284" s="7" customFormat="1" ht="16.5" spans="1:9">
       <c r="A284" s="15">
         <v>283</v>
       </c>
@@ -11788,7 +12308,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="285" spans="1:9" s="7" customFormat="1" ht="16.5">
+    <row r="285" s="7" customFormat="1" ht="16.5" spans="1:9">
       <c r="A285" s="15">
         <v>284</v>
       </c>
@@ -11814,7 +12334,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" spans="1:9" s="7" customFormat="1" ht="16.5">
+    <row r="286" s="7" customFormat="1" ht="16.5" spans="1:9">
       <c r="A286" s="15">
         <v>285</v>
       </c>
@@ -11840,7 +12360,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" spans="1:9" s="8" customFormat="1" ht="16.5">
+    <row r="287" s="8" customFormat="1" ht="16.5" spans="1:9">
       <c r="A287" s="15">
         <v>286</v>
       </c>
@@ -11866,7 +12386,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="288" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A288" s="35">
         <v>287</v>
       </c>
@@ -11892,7 +12412,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="289" spans="1:36" ht="16.5">
+    <row r="289" ht="16.5" spans="1:9">
       <c r="A289" s="15">
         <v>288</v>
       </c>
@@ -11918,7 +12438,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" spans="1:36" s="9" customFormat="1" ht="16.5">
+    <row r="290" s="9" customFormat="1" ht="16.5" spans="1:9">
       <c r="A290" s="15">
         <v>289</v>
       </c>
@@ -11944,7 +12464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" spans="1:36" s="9" customFormat="1" ht="16.5">
+    <row r="291" s="9" customFormat="1" ht="16.5" spans="1:9">
       <c r="A291" s="15">
         <v>290</v>
       </c>
@@ -11970,7 +12490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" spans="1:36" ht="16.5">
+    <row r="292" ht="16.5" spans="1:9">
       <c r="A292" s="15">
         <v>291</v>
       </c>
@@ -11996,7 +12516,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="293" spans="1:36" ht="16.5">
+    <row r="293" ht="16.5" spans="1:9">
       <c r="A293" s="15">
         <v>292</v>
       </c>
@@ -12022,7 +12542,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="294" spans="1:36" ht="16.5">
+    <row r="294" ht="16.5" spans="1:9">
       <c r="A294" s="15">
         <v>293</v>
       </c>
@@ -12049,7 +12569,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="295" spans="1:36" s="10" customFormat="1" ht="16.5">
+    <row r="295" s="10" customFormat="1" ht="16.5" spans="1:36">
       <c r="A295" s="15">
         <v>294</v>
       </c>
@@ -12103,7 +12623,7 @@
       <c r="AI295" s="5"/>
       <c r="AJ295" s="5"/>
     </row>
-    <row r="296" spans="1:36" s="10" customFormat="1" ht="16.5">
+    <row r="296" s="10" customFormat="1" ht="16.5" spans="1:36">
       <c r="A296" s="15">
         <v>295</v>
       </c>
@@ -12157,7 +12677,7 @@
       <c r="AI296" s="5"/>
       <c r="AJ296" s="5"/>
     </row>
-    <row r="297" spans="1:36" s="10" customFormat="1" ht="16.5">
+    <row r="297" s="10" customFormat="1" ht="16.5" spans="1:36">
       <c r="A297" s="15">
         <v>296</v>
       </c>
@@ -12211,7 +12731,7 @@
       <c r="AI297" s="5"/>
       <c r="AJ297" s="5"/>
     </row>
-    <row r="298" spans="1:36" ht="16.5">
+    <row r="298" ht="16.5" spans="1:36">
       <c r="A298" s="15">
         <v>297</v>
       </c>
@@ -12265,7 +12785,7 @@
       <c r="AI298" s="5"/>
       <c r="AJ298" s="5"/>
     </row>
-    <row r="299" spans="1:36" s="11" customFormat="1" ht="16.5">
+    <row r="299" s="11" customFormat="1" ht="16.5" spans="1:36">
       <c r="A299" s="15">
         <v>298</v>
       </c>
@@ -12319,7 +12839,7 @@
       <c r="AI299" s="5"/>
       <c r="AJ299" s="5"/>
     </row>
-    <row r="300" spans="1:36" ht="16.5">
+    <row r="300" ht="16.5" spans="1:9">
       <c r="A300" s="15">
         <v>299</v>
       </c>
@@ -12346,7 +12866,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="301" spans="1:36" s="5" customFormat="1" ht="16.5">
+    <row r="301" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A301" s="15">
         <v>300</v>
       </c>
@@ -12373,7 +12893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="302" spans="1:36" ht="16.5">
+    <row r="302" ht="16.5" spans="1:9">
       <c r="A302" s="15">
         <v>301</v>
       </c>
@@ -12400,7 +12920,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" spans="1:36" ht="16.5">
+    <row r="303" ht="16.5" spans="1:9">
       <c r="A303" s="15">
         <v>302</v>
       </c>
@@ -12427,7 +12947,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="304" spans="1:36" ht="16.5">
+    <row r="304" ht="16.5" spans="1:9">
       <c r="A304" s="15">
         <v>303</v>
       </c>
@@ -12454,7 +12974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="305" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="305" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A305" s="15">
         <v>304</v>
       </c>
@@ -12480,7 +13000,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="306" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="306" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A306" s="15">
         <v>305</v>
       </c>
@@ -12506,7 +13026,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="16.5">
+    <row r="307" ht="16.5" spans="1:7">
       <c r="A307" s="15">
         <v>306</v>
       </c>
@@ -12529,7 +13049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:9" s="5" customFormat="1" ht="17.25">
+    <row r="308" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A308" s="15">
         <v>307</v>
       </c>
@@ -12555,7 +13075,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="309" spans="1:9" s="5" customFormat="1" ht="17.25">
+    <row r="309" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A309" s="15">
         <v>308</v>
       </c>
@@ -12581,7 +13101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="310" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A310" s="15">
         <v>309</v>
       </c>
@@ -12607,7 +13127,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="311" spans="1:9" s="5" customFormat="1" ht="17.25">
+    <row r="311" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A311" s="15">
         <v>310</v>
       </c>
@@ -12633,7 +13153,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="312" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="312" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A312" s="15">
         <v>311</v>
       </c>
@@ -12656,7 +13176,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="313" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="313" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A313" s="15">
         <v>312</v>
       </c>
@@ -12679,7 +13199,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="314" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="314" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A314" s="15">
         <v>313</v>
       </c>
@@ -12702,7 +13222,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="315" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="315" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A315" s="15">
         <v>314</v>
       </c>
@@ -12725,7 +13245,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="316" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="316" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A316" s="15">
         <v>315</v>
       </c>
@@ -12748,7 +13268,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="317" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A317" s="15">
         <v>316</v>
       </c>
@@ -12774,7 +13294,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="318" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="318" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A318" s="15">
         <v>317</v>
       </c>
@@ -12798,7 +13318,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="319" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="319" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A319" s="15">
         <v>318</v>
       </c>
@@ -12824,7 +13344,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="320" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="320" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A320" s="15">
         <v>319</v>
       </c>
@@ -12847,7 +13367,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="321" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="321" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A321" s="15">
         <v>320</v>
       </c>
@@ -12876,7 +13396,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="322" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="322" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A322" s="15">
         <v>321</v>
       </c>
@@ -12902,7 +13422,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="323" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="323" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A323" s="15">
         <v>322</v>
       </c>
@@ -12928,7 +13448,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="16.5">
+    <row r="324" ht="16.5" spans="1:9">
       <c r="A324" s="15">
         <v>323</v>
       </c>
@@ -12954,7 +13474,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="16.5">
+    <row r="325" ht="16.5" spans="1:9">
       <c r="A325" s="15">
         <v>324</v>
       </c>
@@ -12980,7 +13500,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="326" spans="1:9" ht="16.5">
+    <row r="326" ht="16.5" spans="1:9">
       <c r="A326" s="15">
         <v>325</v>
       </c>
@@ -13006,7 +13526,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="327" spans="1:9" s="9" customFormat="1" ht="16.5">
+    <row r="327" s="9" customFormat="1" ht="16.5" spans="1:9">
       <c r="A327" s="15">
         <v>326</v>
       </c>
@@ -13032,7 +13552,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="328" spans="1:9" ht="16.5">
+    <row r="328" ht="16.5" spans="1:9">
       <c r="A328" s="15">
         <v>327</v>
       </c>
@@ -13058,7 +13578,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="329" spans="1:9" ht="16.5">
+    <row r="329" ht="16.5" spans="1:9">
       <c r="A329" s="15">
         <v>328</v>
       </c>
@@ -13084,15 +13604,15 @@
         <v>962</v>
       </c>
     </row>
-    <row r="330" spans="1:9" ht="16.5">
+    <row r="330" ht="16.5" spans="1:9">
       <c r="A330" s="15">
         <v>329</v>
       </c>
       <c r="B330" s="51" t="s">
-        <v>983</v>
+        <v>963</v>
       </c>
       <c r="C330" s="31" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E330" s="5">
         <v>1</v>
@@ -13104,21 +13624,21 @@
         <v>1</v>
       </c>
       <c r="I330" s="31" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9" ht="16.5">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="331" ht="16.5" spans="1:9">
       <c r="A331" s="15">
         <v>330</v>
       </c>
       <c r="B331" s="51" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C331" s="31" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D331" s="18" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="E331" s="5">
         <v>1</v>
@@ -13130,21 +13650,21 @@
         <v>1</v>
       </c>
       <c r="I331" s="31" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9" ht="16.5">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="332" ht="16.5" spans="1:9">
       <c r="A332" s="15">
         <v>331</v>
       </c>
       <c r="B332" s="52" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C332" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="D332" s="53" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="E332">
         <v>0</v>
@@ -13156,44 +13676,44 @@
         <v>0</v>
       </c>
       <c r="I332" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9" ht="16.5">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="333" ht="16.5" spans="1:9">
       <c r="A333" s="15">
         <v>332</v>
       </c>
       <c r="B333" s="51" t="s">
+        <v>974</v>
+      </c>
+      <c r="C333" t="s">
+        <v>975</v>
+      </c>
+      <c r="E333">
+        <v>0</v>
+      </c>
+      <c r="F333">
+        <v>0</v>
+      </c>
+      <c r="G333">
+        <v>0</v>
+      </c>
+      <c r="I333" t="s">
         <v>973</v>
       </c>
-      <c r="C333" t="s">
-        <v>974</v>
-      </c>
-      <c r="E333">
-        <v>0</v>
-      </c>
-      <c r="F333">
-        <v>0</v>
-      </c>
-      <c r="G333">
-        <v>0</v>
-      </c>
-      <c r="I333" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" ht="16.5">
+    </row>
+    <row r="334" ht="16.5" spans="1:7">
       <c r="A334" s="15">
         <v>333</v>
       </c>
       <c r="B334" s="51" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C334" s="54" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D334" s="18" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E334">
         <v>0</v>
@@ -13205,18 +13725,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:9" ht="15.75">
+    <row r="335" ht="15.75" spans="1:9">
       <c r="A335" s="5">
         <v>334</v>
       </c>
       <c r="B335" s="52" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C335" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="D335" s="52" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E335" s="5">
         <v>0</v>
@@ -13228,40 +13748,43 @@
         <v>0</v>
       </c>
       <c r="I335" s="31" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H335"/>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <autoFilter ref="A1:H335">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="97.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="153" customHeight="1">
+    <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
-    <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
+        <v>983</v>
+      </c>
+    </row>
+    <row r="2" ht="51.75" customHeight="1"/>
+    <row r="3" ht="52.5" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>